--- a/results/mp/deberta/corona/confidence/210/stop-words-topk-masking-0.15/homogenity_scores.xlsx
+++ b/results/mp/deberta/corona/confidence/210/stop-words-topk-masking-0.15/homogenity_scores.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1229" uniqueCount="1071">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1227" uniqueCount="1071">
   <si>
     <t>anchor score</t>
   </si>
@@ -460,433 +460,433 @@
     <t>caused</t>
   </si>
   <si>
+    <t>store</t>
+  </si>
+  <si>
+    <t>grocery</t>
+  </si>
+  <si>
+    <t>hand</t>
+  </si>
+  <si>
+    <t>help</t>
+  </si>
+  <si>
+    <t>online</t>
+  </si>
+  <si>
+    <t>supermarket</t>
+  </si>
+  <si>
+    <t>avoid</t>
+  </si>
+  <si>
+    <t>consumer</t>
+  </si>
+  <si>
+    <t>prices</t>
+  </si>
+  <si>
+    <t>good</t>
+  </si>
+  <si>
+    <t>free</t>
+  </si>
+  <si>
+    <t>shopping</t>
+  </si>
+  <si>
+    <t>toilet</t>
+  </si>
+  <si>
+    <t>great</t>
+  </si>
+  <si>
+    <t>support</t>
+  </si>
+  <si>
+    <t>new</t>
+  </si>
+  <si>
+    <t>thank</t>
+  </si>
+  <si>
+    <t>thanks</t>
+  </si>
+  <si>
+    <t>stock</t>
+  </si>
+  <si>
+    <t>well</t>
+  </si>
+  <si>
+    <t>amp</t>
+  </si>
+  <si>
+    <t>stay</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>home</t>
+  </si>
+  <si>
+    <t>best</t>
+  </si>
+  <si>
+    <t>local</t>
+  </si>
+  <si>
+    <t>retail</t>
+  </si>
+  <si>
+    <t>care</t>
+  </si>
+  <si>
+    <t>love</t>
+  </si>
+  <si>
+    <t>share</t>
+  </si>
+  <si>
+    <t>via</t>
+  </si>
+  <si>
+    <t>positive</t>
+  </si>
+  <si>
+    <t>health</t>
+  </si>
+  <si>
+    <t>hope</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>staff</t>
+  </si>
+  <si>
+    <t>news</t>
+  </si>
+  <si>
+    <t>today</t>
+  </si>
+  <si>
+    <t>delivery</t>
+  </si>
+  <si>
+    <t>time</t>
+  </si>
+  <si>
+    <t>shop</t>
+  </si>
+  <si>
+    <t>data</t>
+  </si>
+  <si>
+    <t>give</t>
+  </si>
+  <si>
+    <t>read</t>
+  </si>
+  <si>
+    <t>everyone</t>
+  </si>
+  <si>
+    <t>take</t>
+  </si>
+  <si>
+    <t>food</t>
+  </si>
+  <si>
+    <t>check</t>
+  </si>
+  <si>
+    <t>fresh</t>
+  </si>
+  <si>
+    <t>market</t>
+  </si>
+  <si>
+    <t>essential</t>
+  </si>
+  <si>
+    <t>stores</t>
+  </si>
+  <si>
+    <t>people</t>
+  </si>
+  <si>
+    <t>interesting</t>
+  </si>
+  <si>
+    <t>confidence</t>
+  </si>
+  <si>
+    <t>join</t>
+  </si>
+  <si>
+    <t>go</t>
+  </si>
+  <si>
+    <t>increased</t>
+  </si>
+  <si>
+    <t>uk</t>
+  </si>
+  <si>
+    <t>ia</t>
+  </si>
+  <si>
+    <t>dona</t>
+  </si>
+  <si>
+    <t>e</t>
+  </si>
+  <si>
+    <t>week</t>
+  </si>
+  <si>
+    <t>look</t>
+  </si>
+  <si>
+    <t>feel</t>
+  </si>
+  <si>
+    <t>gold</t>
+  </si>
+  <si>
+    <t>global</t>
+  </si>
+  <si>
+    <t>made</t>
+  </si>
+  <si>
+    <t>way</t>
+  </si>
+  <si>
+    <t>credit</t>
+  </si>
+  <si>
+    <t>shops</t>
+  </si>
+  <si>
+    <t>markets</t>
+  </si>
+  <si>
+    <t>di</t>
+  </si>
+  <si>
+    <t>latest</t>
+  </si>
+  <si>
+    <t>working</t>
+  </si>
+  <si>
+    <t>companies</t>
+  </si>
+  <si>
+    <t>also</t>
+  </si>
+  <si>
+    <t>items</t>
+  </si>
+  <si>
+    <t>healthcare</t>
+  </si>
+  <si>
+    <t>making</t>
+  </si>
+  <si>
+    <t>come</t>
+  </si>
+  <si>
+    <t>house</t>
+  </si>
+  <si>
+    <t>still</t>
+  </si>
+  <si>
+    <t>advantage</t>
+  </si>
+  <si>
+    <t>solution</t>
+  </si>
+  <si>
+    <t>right</t>
+  </si>
+  <si>
+    <t>provide</t>
+  </si>
+  <si>
+    <t>daily</t>
+  </si>
+  <si>
+    <t>insights</t>
+  </si>
+  <si>
+    <t>ready</t>
+  </si>
+  <si>
+    <t>nice</t>
+  </si>
+  <si>
+    <t>want</t>
+  </si>
+  <si>
+    <t>res</t>
+  </si>
+  <si>
+    <t>self</t>
+  </si>
+  <si>
+    <t>real</t>
+  </si>
+  <si>
+    <t>foods</t>
+  </si>
+  <si>
+    <t>easy</t>
+  </si>
+  <si>
+    <t>profits</t>
+  </si>
+  <si>
+    <t>story</t>
+  </si>
+  <si>
+    <t>true</t>
+  </si>
+  <si>
+    <t>profit</t>
+  </si>
+  <si>
+    <t>putting</t>
+  </si>
+  <si>
+    <t>least</t>
+  </si>
+  <si>
+    <t>much</t>
+  </si>
+  <si>
+    <t>rest</t>
+  </si>
+  <si>
+    <t>march</t>
+  </si>
+  <si>
+    <t>amid</t>
+  </si>
+  <si>
+    <t>supply</t>
+  </si>
+  <si>
+    <t>deliver</t>
+  </si>
+  <si>
+    <t>cure</t>
+  </si>
+  <si>
+    <t>produce</t>
+  </si>
+  <si>
+    <t>w</t>
+  </si>
+  <si>
+    <t>12</t>
+  </si>
+  <si>
+    <t>u</t>
+  </si>
+  <si>
+    <t>test</t>
+  </si>
+  <si>
+    <t>rt</t>
+  </si>
+  <si>
+    <t>simple</t>
+  </si>
+  <si>
+    <t>eco</t>
+  </si>
+  <si>
+    <t>f</t>
+  </si>
+  <si>
+    <t>buying</t>
+  </si>
+  <si>
+    <t>watch</t>
+  </si>
+  <si>
+    <t>month</t>
+  </si>
+  <si>
+    <t>think</t>
+  </si>
+  <si>
+    <t>supermarkets</t>
+  </si>
+  <si>
+    <t>live</t>
+  </si>
+  <si>
+    <t>holiday</t>
+  </si>
+  <si>
+    <t>friendly</t>
+  </si>
+  <si>
+    <t>volunteers</t>
+  </si>
+  <si>
+    <t>volunteer</t>
+  </si>
+  <si>
+    <t>la</t>
+  </si>
+  <si>
+    <t>tech</t>
+  </si>
+  <si>
+    <t>eu</t>
+  </si>
+  <si>
+    <t>close</t>
+  </si>
+  <si>
+    <t>shift</t>
+  </si>
+  <si>
+    <t>national</t>
+  </si>
+  <si>
+    <t>far</t>
+  </si>
+  <si>
+    <t>saying</t>
+  </si>
+  <si>
+    <t>part</t>
+  </si>
+  <si>
+    <t>stimulus</t>
+  </si>
+  <si>
+    <t>kids</t>
+  </si>
+  <si>
+    <t>hazard</t>
+  </si>
+  <si>
     <t>like</t>
   </si>
   <si>
-    <t>store</t>
-  </si>
-  <si>
-    <t>grocery</t>
-  </si>
-  <si>
     <t>please</t>
-  </si>
-  <si>
-    <t>hand</t>
-  </si>
-  <si>
-    <t>help</t>
-  </si>
-  <si>
-    <t>online</t>
-  </si>
-  <si>
-    <t>supermarket</t>
-  </si>
-  <si>
-    <t>avoid</t>
-  </si>
-  <si>
-    <t>consumer</t>
-  </si>
-  <si>
-    <t>prices</t>
-  </si>
-  <si>
-    <t>good</t>
-  </si>
-  <si>
-    <t>free</t>
-  </si>
-  <si>
-    <t>shopping</t>
-  </si>
-  <si>
-    <t>toilet</t>
-  </si>
-  <si>
-    <t>great</t>
-  </si>
-  <si>
-    <t>support</t>
-  </si>
-  <si>
-    <t>new</t>
-  </si>
-  <si>
-    <t>thank</t>
-  </si>
-  <si>
-    <t>thanks</t>
-  </si>
-  <si>
-    <t>stock</t>
-  </si>
-  <si>
-    <t>well</t>
-  </si>
-  <si>
-    <t>amp</t>
-  </si>
-  <si>
-    <t>stay</t>
-  </si>
-  <si>
-    <t>2</t>
-  </si>
-  <si>
-    <t>home</t>
-  </si>
-  <si>
-    <t>best</t>
-  </si>
-  <si>
-    <t>local</t>
-  </si>
-  <si>
-    <t>retail</t>
-  </si>
-  <si>
-    <t>care</t>
-  </si>
-  <si>
-    <t>love</t>
-  </si>
-  <si>
-    <t>share</t>
-  </si>
-  <si>
-    <t>via</t>
-  </si>
-  <si>
-    <t>positive</t>
-  </si>
-  <si>
-    <t>health</t>
-  </si>
-  <si>
-    <t>hope</t>
-  </si>
-  <si>
-    <t>1</t>
-  </si>
-  <si>
-    <t>staff</t>
-  </si>
-  <si>
-    <t>news</t>
-  </si>
-  <si>
-    <t>today</t>
-  </si>
-  <si>
-    <t>delivery</t>
-  </si>
-  <si>
-    <t>time</t>
-  </si>
-  <si>
-    <t>shop</t>
-  </si>
-  <si>
-    <t>data</t>
-  </si>
-  <si>
-    <t>give</t>
-  </si>
-  <si>
-    <t>read</t>
-  </si>
-  <si>
-    <t>everyone</t>
-  </si>
-  <si>
-    <t>take</t>
-  </si>
-  <si>
-    <t>food</t>
-  </si>
-  <si>
-    <t>check</t>
-  </si>
-  <si>
-    <t>fresh</t>
-  </si>
-  <si>
-    <t>market</t>
-  </si>
-  <si>
-    <t>essential</t>
-  </si>
-  <si>
-    <t>stores</t>
-  </si>
-  <si>
-    <t>people</t>
-  </si>
-  <si>
-    <t>interesting</t>
-  </si>
-  <si>
-    <t>confidence</t>
-  </si>
-  <si>
-    <t>join</t>
-  </si>
-  <si>
-    <t>go</t>
-  </si>
-  <si>
-    <t>increased</t>
-  </si>
-  <si>
-    <t>uk</t>
-  </si>
-  <si>
-    <t>ia</t>
-  </si>
-  <si>
-    <t>dona</t>
-  </si>
-  <si>
-    <t>e</t>
-  </si>
-  <si>
-    <t>week</t>
-  </si>
-  <si>
-    <t>look</t>
-  </si>
-  <si>
-    <t>feel</t>
-  </si>
-  <si>
-    <t>gold</t>
-  </si>
-  <si>
-    <t>global</t>
-  </si>
-  <si>
-    <t>made</t>
-  </si>
-  <si>
-    <t>way</t>
-  </si>
-  <si>
-    <t>credit</t>
-  </si>
-  <si>
-    <t>shops</t>
-  </si>
-  <si>
-    <t>markets</t>
-  </si>
-  <si>
-    <t>di</t>
-  </si>
-  <si>
-    <t>latest</t>
-  </si>
-  <si>
-    <t>working</t>
-  </si>
-  <si>
-    <t>companies</t>
-  </si>
-  <si>
-    <t>also</t>
-  </si>
-  <si>
-    <t>items</t>
-  </si>
-  <si>
-    <t>healthcare</t>
-  </si>
-  <si>
-    <t>making</t>
-  </si>
-  <si>
-    <t>come</t>
-  </si>
-  <si>
-    <t>house</t>
-  </si>
-  <si>
-    <t>still</t>
-  </si>
-  <si>
-    <t>advantage</t>
-  </si>
-  <si>
-    <t>solution</t>
-  </si>
-  <si>
-    <t>right</t>
-  </si>
-  <si>
-    <t>provide</t>
-  </si>
-  <si>
-    <t>daily</t>
-  </si>
-  <si>
-    <t>insights</t>
-  </si>
-  <si>
-    <t>ready</t>
-  </si>
-  <si>
-    <t>nice</t>
-  </si>
-  <si>
-    <t>want</t>
-  </si>
-  <si>
-    <t>res</t>
-  </si>
-  <si>
-    <t>self</t>
-  </si>
-  <si>
-    <t>real</t>
-  </si>
-  <si>
-    <t>foods</t>
-  </si>
-  <si>
-    <t>easy</t>
-  </si>
-  <si>
-    <t>profits</t>
-  </si>
-  <si>
-    <t>story</t>
-  </si>
-  <si>
-    <t>true</t>
-  </si>
-  <si>
-    <t>profit</t>
-  </si>
-  <si>
-    <t>putting</t>
-  </si>
-  <si>
-    <t>least</t>
-  </si>
-  <si>
-    <t>much</t>
-  </si>
-  <si>
-    <t>rest</t>
-  </si>
-  <si>
-    <t>march</t>
-  </si>
-  <si>
-    <t>amid</t>
-  </si>
-  <si>
-    <t>supply</t>
-  </si>
-  <si>
-    <t>deliver</t>
-  </si>
-  <si>
-    <t>cure</t>
-  </si>
-  <si>
-    <t>produce</t>
-  </si>
-  <si>
-    <t>w</t>
-  </si>
-  <si>
-    <t>12</t>
-  </si>
-  <si>
-    <t>u</t>
-  </si>
-  <si>
-    <t>test</t>
-  </si>
-  <si>
-    <t>rt</t>
-  </si>
-  <si>
-    <t>simple</t>
-  </si>
-  <si>
-    <t>eco</t>
-  </si>
-  <si>
-    <t>f</t>
-  </si>
-  <si>
-    <t>buying</t>
-  </si>
-  <si>
-    <t>watch</t>
-  </si>
-  <si>
-    <t>month</t>
-  </si>
-  <si>
-    <t>think</t>
-  </si>
-  <si>
-    <t>supermarkets</t>
-  </si>
-  <si>
-    <t>live</t>
-  </si>
-  <si>
-    <t>holiday</t>
-  </si>
-  <si>
-    <t>friendly</t>
-  </si>
-  <si>
-    <t>volunteers</t>
-  </si>
-  <si>
-    <t>volunteer</t>
-  </si>
-  <si>
-    <t>la</t>
-  </si>
-  <si>
-    <t>tech</t>
-  </si>
-  <si>
-    <t>eu</t>
-  </si>
-  <si>
-    <t>close</t>
-  </si>
-  <si>
-    <t>shift</t>
-  </si>
-  <si>
-    <t>national</t>
-  </si>
-  <si>
-    <t>far</t>
-  </si>
-  <si>
-    <t>saying</t>
-  </si>
-  <si>
-    <t>part</t>
-  </si>
-  <si>
-    <t>stimulus</t>
-  </si>
-  <si>
-    <t>kids</t>
-  </si>
-  <si>
-    <t>hazard</t>
   </si>
   <si>
     <t>san</t>
@@ -3595,7 +3595,7 @@
         <v>140</v>
       </c>
       <c r="J1" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -3653,7 +3653,7 @@
         <v>8</v>
       </c>
       <c r="B3">
-        <v>0.02917898573295106</v>
+        <v>0.0295578330623376</v>
       </c>
       <c r="C3">
         <v>186</v>
@@ -3674,16 +3674,16 @@
         <v>106</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="K3">
-        <v>0.005298210192103</v>
+        <v>0.007180078587784696</v>
       </c>
       <c r="L3">
-        <v>104</v>
+        <v>191</v>
       </c>
       <c r="M3">
-        <v>104</v>
+        <v>191</v>
       </c>
       <c r="N3">
         <v>1</v>
@@ -3695,7 +3695,7 @@
         <v>0</v>
       </c>
       <c r="Q3">
-        <v>382</v>
+        <v>149</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -3703,7 +3703,7 @@
         <v>9</v>
       </c>
       <c r="B4">
-        <v>0.02372828091612929</v>
+        <v>0.02403635865187655</v>
       </c>
       <c r="C4">
         <v>123</v>
@@ -3724,16 +3724,16 @@
         <v>393</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="K4">
-        <v>0.005195322530124879</v>
+        <v>0.006632943780328443</v>
       </c>
       <c r="L4">
-        <v>100</v>
+        <v>163</v>
       </c>
       <c r="M4">
-        <v>100</v>
+        <v>163</v>
       </c>
       <c r="N4">
         <v>1</v>
@@ -3745,7 +3745,7 @@
         <v>0</v>
       </c>
       <c r="Q4">
-        <v>42</v>
+        <v>76</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -3753,7 +3753,7 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>0.01132120710425088</v>
+        <v>0.0114681967603044</v>
       </c>
       <c r="C5">
         <v>28</v>
@@ -3774,28 +3774,28 @@
         <v>47</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>78</v>
+        <v>291</v>
       </c>
       <c r="K5">
-        <v>0.004277873335612676</v>
+        <v>0.005298210192103</v>
       </c>
       <c r="L5">
-        <v>587</v>
+        <v>104</v>
       </c>
       <c r="M5">
-        <v>612</v>
+        <v>104</v>
       </c>
       <c r="N5">
-        <v>0.96</v>
+        <v>1</v>
       </c>
       <c r="O5">
-        <v>0.04000000000000004</v>
+        <v>0</v>
       </c>
       <c r="P5" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q5">
-        <v>2495</v>
+        <v>382</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -3803,7 +3803,7 @@
         <v>11</v>
       </c>
       <c r="B6">
-        <v>0.01026071529955537</v>
+        <v>0.01039393598873246</v>
       </c>
       <c r="C6">
         <v>23</v>
@@ -3824,28 +3824,28 @@
         <v>6</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>152</v>
+        <v>292</v>
       </c>
       <c r="K6">
-        <v>0.003882136176057633</v>
+        <v>0.005195322530124879</v>
       </c>
       <c r="L6">
-        <v>213</v>
+        <v>100</v>
       </c>
       <c r="M6">
-        <v>216</v>
+        <v>100</v>
       </c>
       <c r="N6">
-        <v>0.99</v>
+        <v>1</v>
       </c>
       <c r="O6">
-        <v>0.01000000000000001</v>
+        <v>0</v>
       </c>
       <c r="P6" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q6">
-        <v>167</v>
+        <v>42</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -3853,7 +3853,7 @@
         <v>12</v>
       </c>
       <c r="B7">
-        <v>0.01026071529955537</v>
+        <v>0.01039393598873246</v>
       </c>
       <c r="C7">
         <v>23</v>
@@ -3874,28 +3874,28 @@
         <v>13</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>95</v>
+        <v>78</v>
       </c>
       <c r="K7">
-        <v>0.003700440667334008</v>
+        <v>0.004277873335612676</v>
       </c>
       <c r="L7">
-        <v>356</v>
+        <v>587</v>
       </c>
       <c r="M7">
-        <v>368</v>
+        <v>612</v>
       </c>
       <c r="N7">
-        <v>0.97</v>
+        <v>0.96</v>
       </c>
       <c r="O7">
-        <v>0.03000000000000003</v>
+        <v>0.04000000000000004</v>
       </c>
       <c r="P7" t="b">
         <v>1</v>
       </c>
       <c r="Q7">
-        <v>2833</v>
+        <v>2495</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -3903,7 +3903,7 @@
         <v>13</v>
       </c>
       <c r="B8">
-        <v>0.00800530231463311</v>
+        <v>0.008109239697192839</v>
       </c>
       <c r="C8">
         <v>14</v>
@@ -3924,28 +3924,28 @@
         <v>135</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>293</v>
+        <v>150</v>
       </c>
       <c r="K8">
-        <v>0.003561733680421782</v>
+        <v>0.003882136176057633</v>
       </c>
       <c r="L8">
-        <v>47</v>
+        <v>213</v>
       </c>
       <c r="M8">
-        <v>47</v>
+        <v>216</v>
       </c>
       <c r="N8">
-        <v>1</v>
+        <v>0.99</v>
       </c>
       <c r="O8">
-        <v>0</v>
+        <v>0.01000000000000001</v>
       </c>
       <c r="P8" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q8">
-        <v>16</v>
+        <v>167</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -3953,7 +3953,7 @@
         <v>14</v>
       </c>
       <c r="B9">
-        <v>0.007714102331503521</v>
+        <v>0.007814258899440846</v>
       </c>
       <c r="C9">
         <v>13</v>
@@ -3974,28 +3974,28 @@
         <v>13</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>294</v>
+        <v>95</v>
       </c>
       <c r="K9">
-        <v>0.003561733680421782</v>
+        <v>0.003700440667334008</v>
       </c>
       <c r="L9">
-        <v>47</v>
+        <v>356</v>
       </c>
       <c r="M9">
-        <v>47</v>
+        <v>368</v>
       </c>
       <c r="N9">
-        <v>1</v>
+        <v>0.97</v>
       </c>
       <c r="O9">
-        <v>0</v>
+        <v>0.03000000000000003</v>
       </c>
       <c r="P9" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q9">
-        <v>183</v>
+        <v>2833</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -4003,7 +4003,7 @@
         <v>15</v>
       </c>
       <c r="B10">
-        <v>0.007714102331503521</v>
+        <v>0.007814258899440846</v>
       </c>
       <c r="C10">
         <v>13</v>
@@ -4024,28 +4024,28 @@
         <v>0</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>166</v>
+        <v>293</v>
       </c>
       <c r="K10">
-        <v>0.00310384087756921</v>
+        <v>0.003561733680421782</v>
       </c>
       <c r="L10">
-        <v>109</v>
+        <v>47</v>
       </c>
       <c r="M10">
-        <v>110</v>
+        <v>47</v>
       </c>
       <c r="N10">
-        <v>0.99</v>
+        <v>1</v>
       </c>
       <c r="O10">
-        <v>0.01000000000000001</v>
+        <v>0</v>
       </c>
       <c r="P10" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q10">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -4053,7 +4053,7 @@
         <v>16</v>
       </c>
       <c r="B11">
-        <v>0.007411469787643063</v>
+        <v>0.007507697105534609</v>
       </c>
       <c r="C11">
         <v>12</v>
@@ -4074,28 +4074,28 @@
         <v>3</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>94</v>
+        <v>294</v>
       </c>
       <c r="K11">
-        <v>0.003040988987537868</v>
+        <v>0.003561733680421782</v>
       </c>
       <c r="L11">
-        <v>383</v>
+        <v>47</v>
       </c>
       <c r="M11">
-        <v>404</v>
+        <v>47</v>
       </c>
       <c r="N11">
-        <v>0.95</v>
+        <v>1</v>
       </c>
       <c r="O11">
-        <v>0.05000000000000004</v>
+        <v>0</v>
       </c>
       <c r="P11" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q11">
-        <v>1739</v>
+        <v>183</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -4103,7 +4103,7 @@
         <v>17</v>
       </c>
       <c r="B12">
-        <v>0.007095942083006579</v>
+        <v>0.007188072725662632</v>
       </c>
       <c r="C12">
         <v>11</v>
@@ -4124,28 +4124,28 @@
         <v>66</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>295</v>
+        <v>164</v>
       </c>
       <c r="K12">
-        <v>0.003029367575136415</v>
+        <v>0.00310384087756921</v>
       </c>
       <c r="L12">
-        <v>34</v>
+        <v>109</v>
       </c>
       <c r="M12">
-        <v>34</v>
+        <v>110</v>
       </c>
       <c r="N12">
-        <v>1</v>
+        <v>0.99</v>
       </c>
       <c r="O12">
-        <v>0</v>
+        <v>0.01000000000000001</v>
       </c>
       <c r="P12" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q12">
-        <v>233</v>
+        <v>18</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -4153,7 +4153,7 @@
         <v>18</v>
       </c>
       <c r="B13">
-        <v>0.006765715311600216</v>
+        <v>0.006853558432695916</v>
       </c>
       <c r="C13">
         <v>10</v>
@@ -4174,28 +4174,28 @@
         <v>24</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>296</v>
+        <v>94</v>
       </c>
       <c r="K13">
-        <v>0.002938918233202043</v>
+        <v>0.003040988987537868</v>
       </c>
       <c r="L13">
-        <v>32</v>
+        <v>383</v>
       </c>
       <c r="M13">
-        <v>32</v>
+        <v>404</v>
       </c>
       <c r="N13">
-        <v>1</v>
+        <v>0.95</v>
       </c>
       <c r="O13">
-        <v>0</v>
+        <v>0.05000000000000004</v>
       </c>
       <c r="P13" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q13">
-        <v>133</v>
+        <v>1739</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -4203,7 +4203,7 @@
         <v>19</v>
       </c>
       <c r="B14">
-        <v>0.006418521115479752</v>
+        <v>0.006501856417311871</v>
       </c>
       <c r="C14">
         <v>9</v>
@@ -4224,16 +4224,16 @@
         <v>42</v>
       </c>
       <c r="J14" s="1" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="K14">
-        <v>0.002938918233202043</v>
+        <v>0.003029367575136415</v>
       </c>
       <c r="L14">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="M14">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="N14">
         <v>1</v>
@@ -4245,7 +4245,7 @@
         <v>0</v>
       </c>
       <c r="Q14">
-        <v>83</v>
+        <v>233</v>
       </c>
     </row>
     <row r="15" spans="1:17">
@@ -4253,7 +4253,7 @@
         <v>20</v>
       </c>
       <c r="B15">
-        <v>0.006418521115479752</v>
+        <v>0.006501856417311871</v>
       </c>
       <c r="C15">
         <v>9</v>
@@ -4274,28 +4274,28 @@
         <v>22</v>
       </c>
       <c r="J15" s="1" t="s">
-        <v>159</v>
+        <v>296</v>
       </c>
       <c r="K15">
-        <v>0.002772379194488243</v>
+        <v>0.002938918233202043</v>
       </c>
       <c r="L15">
-        <v>120</v>
+        <v>32</v>
       </c>
       <c r="M15">
-        <v>122</v>
+        <v>32</v>
       </c>
       <c r="N15">
-        <v>0.98</v>
+        <v>1</v>
       </c>
       <c r="O15">
-        <v>0.02000000000000002</v>
+        <v>0</v>
       </c>
       <c r="P15" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q15">
-        <v>38</v>
+        <v>133</v>
       </c>
     </row>
     <row r="16" spans="1:17">
@@ -4303,7 +4303,7 @@
         <v>21</v>
       </c>
       <c r="B16">
-        <v>0.006418521115479752</v>
+        <v>0.006501856417311871</v>
       </c>
       <c r="C16">
         <v>9</v>
@@ -4324,16 +4324,16 @@
         <v>21</v>
       </c>
       <c r="J16" s="1" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="K16">
-        <v>0.002699568775165074</v>
+        <v>0.002938918233202043</v>
       </c>
       <c r="L16">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="M16">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="N16">
         <v>1</v>
@@ -4345,7 +4345,7 @@
         <v>0</v>
       </c>
       <c r="Q16">
-        <v>116</v>
+        <v>83</v>
       </c>
     </row>
     <row r="17" spans="1:17">
@@ -4353,7 +4353,7 @@
         <v>22</v>
       </c>
       <c r="B17">
-        <v>0.006418521115479752</v>
+        <v>0.006501856417311871</v>
       </c>
       <c r="C17">
         <v>9</v>
@@ -4374,28 +4374,28 @@
         <v>6</v>
       </c>
       <c r="J17" s="1" t="s">
-        <v>149</v>
+        <v>157</v>
       </c>
       <c r="K17">
-        <v>0.002614033739026072</v>
+        <v>0.002772379194488243</v>
       </c>
       <c r="L17">
-        <v>191</v>
+        <v>120</v>
       </c>
       <c r="M17">
-        <v>198</v>
+        <v>122</v>
       </c>
       <c r="N17">
-        <v>0.96</v>
+        <v>0.98</v>
       </c>
       <c r="O17">
-        <v>0.04000000000000004</v>
+        <v>0.02000000000000002</v>
       </c>
       <c r="P17" t="b">
         <v>1</v>
       </c>
       <c r="Q17">
-        <v>696</v>
+        <v>38</v>
       </c>
     </row>
     <row r="18" spans="1:17">
@@ -4403,7 +4403,7 @@
         <v>23</v>
       </c>
       <c r="B18">
-        <v>0.006418521115479752</v>
+        <v>0.006501856417311871</v>
       </c>
       <c r="C18">
         <v>9</v>
@@ -4424,16 +4424,16 @@
         <v>10</v>
       </c>
       <c r="J18" s="1" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="K18">
-        <v>0.00259766126506244</v>
+        <v>0.002699568775165074</v>
       </c>
       <c r="L18">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="M18">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="N18">
         <v>1</v>
@@ -4445,7 +4445,7 @@
         <v>0</v>
       </c>
       <c r="Q18">
-        <v>66</v>
+        <v>116</v>
       </c>
     </row>
     <row r="19" spans="1:17">
@@ -4453,7 +4453,7 @@
         <v>24</v>
       </c>
       <c r="B19">
-        <v>0.006418521115479752</v>
+        <v>0.006501856417311871</v>
       </c>
       <c r="C19">
         <v>9</v>
@@ -4474,28 +4474,28 @@
         <v>0</v>
       </c>
       <c r="J19" s="1" t="s">
-        <v>300</v>
+        <v>148</v>
       </c>
       <c r="K19">
-        <v>0.002545177849598248</v>
+        <v>0.002614033739026072</v>
       </c>
       <c r="L19">
-        <v>24</v>
+        <v>191</v>
       </c>
       <c r="M19">
-        <v>24</v>
+        <v>198</v>
       </c>
       <c r="N19">
-        <v>1</v>
+        <v>0.96</v>
       </c>
       <c r="O19">
-        <v>0</v>
+        <v>0.04000000000000004</v>
       </c>
       <c r="P19" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q19">
-        <v>282</v>
+        <v>696</v>
       </c>
     </row>
     <row r="20" spans="1:17">
@@ -4503,7 +4503,7 @@
         <v>25</v>
       </c>
       <c r="B20">
-        <v>0.006051439741259702</v>
+        <v>0.006130009017309993</v>
       </c>
       <c r="C20">
         <v>8</v>
@@ -4524,16 +4524,16 @@
         <v>23</v>
       </c>
       <c r="J20" s="1" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="K20">
-        <v>0.002545177849598248</v>
+        <v>0.00259766126506244</v>
       </c>
       <c r="L20">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="M20">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="N20">
         <v>1</v>
@@ -4545,7 +4545,7 @@
         <v>0</v>
       </c>
       <c r="Q20">
-        <v>77</v>
+        <v>66</v>
       </c>
     </row>
     <row r="21" spans="1:17">
@@ -4553,7 +4553,7 @@
         <v>26</v>
       </c>
       <c r="B21">
-        <v>0.006051439741259702</v>
+        <v>0.006130009017309993</v>
       </c>
       <c r="C21">
         <v>8</v>
@@ -4574,7 +4574,7 @@
         <v>11</v>
       </c>
       <c r="J21" s="1" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="K21">
         <v>0.002545177849598248</v>
@@ -4595,7 +4595,7 @@
         <v>0</v>
       </c>
       <c r="Q21">
-        <v>23</v>
+        <v>282</v>
       </c>
     </row>
     <row r="22" spans="1:17">
@@ -4603,7 +4603,7 @@
         <v>27</v>
       </c>
       <c r="B22">
-        <v>0.006051439741259702</v>
+        <v>0.006130009017309993</v>
       </c>
       <c r="C22">
         <v>8</v>
@@ -4624,16 +4624,16 @@
         <v>29</v>
       </c>
       <c r="J22" s="1" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="K22">
-        <v>0.002491589156374969</v>
+        <v>0.002545177849598248</v>
       </c>
       <c r="L22">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="M22">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="N22">
         <v>1</v>
@@ -4645,7 +4645,7 @@
         <v>0</v>
       </c>
       <c r="Q22">
-        <v>202</v>
+        <v>77</v>
       </c>
     </row>
     <row r="23" spans="1:17">
@@ -4653,7 +4653,7 @@
         <v>28</v>
       </c>
       <c r="B23">
-        <v>0.006051439741259702</v>
+        <v>0.006130009017309993</v>
       </c>
       <c r="C23">
         <v>8</v>
@@ -4674,16 +4674,16 @@
         <v>3</v>
       </c>
       <c r="J23" s="1" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="K23">
-        <v>0.002380795875400675</v>
+        <v>0.002545177849598248</v>
       </c>
       <c r="L23">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="M23">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="N23">
         <v>1</v>
@@ -4695,7 +4695,7 @@
         <v>0</v>
       </c>
       <c r="Q23">
-        <v>77</v>
+        <v>23</v>
       </c>
     </row>
     <row r="24" spans="1:17">
@@ -4703,7 +4703,7 @@
         <v>29</v>
       </c>
       <c r="B24">
-        <v>0.006051439741259702</v>
+        <v>0.006130009017309993</v>
       </c>
       <c r="C24">
         <v>8</v>
@@ -4724,16 +4724,16 @@
         <v>4</v>
       </c>
       <c r="J24" s="1" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="K24">
-        <v>0.002380795875400675</v>
+        <v>0.002491589156374969</v>
       </c>
       <c r="L24">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="M24">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="N24">
         <v>1</v>
@@ -4745,7 +4745,7 @@
         <v>0</v>
       </c>
       <c r="Q24">
-        <v>30</v>
+        <v>202</v>
       </c>
     </row>
     <row r="25" spans="1:17">
@@ -4753,7 +4753,7 @@
         <v>30</v>
       </c>
       <c r="B25">
-        <v>0.005660603552125438</v>
+        <v>0.005734098380152201</v>
       </c>
       <c r="C25">
         <v>7</v>
@@ -4774,7 +4774,7 @@
         <v>20</v>
       </c>
       <c r="J25" s="1" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="K25">
         <v>0.002380795875400675</v>
@@ -4795,7 +4795,7 @@
         <v>0</v>
       </c>
       <c r="Q25">
-        <v>95</v>
+        <v>77</v>
       </c>
     </row>
     <row r="26" spans="1:17">
@@ -4803,7 +4803,7 @@
         <v>31</v>
       </c>
       <c r="B26">
-        <v>0.005660603552125438</v>
+        <v>0.005734098380152201</v>
       </c>
       <c r="C26">
         <v>7</v>
@@ -4824,16 +4824,16 @@
         <v>5</v>
       </c>
       <c r="J26" s="1" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="K26">
-        <v>0.002323418868479086</v>
+        <v>0.002380795875400675</v>
       </c>
       <c r="L26">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="M26">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="N26">
         <v>1</v>
@@ -4845,7 +4845,7 @@
         <v>0</v>
       </c>
       <c r="Q26">
-        <v>16</v>
+        <v>30</v>
       </c>
     </row>
     <row r="27" spans="1:17">
@@ -4853,7 +4853,7 @@
         <v>32</v>
       </c>
       <c r="B27">
-        <v>0.005660603552125438</v>
+        <v>0.005734098380152201</v>
       </c>
       <c r="C27">
         <v>7</v>
@@ -4874,16 +4874,16 @@
         <v>12</v>
       </c>
       <c r="J27" s="1" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="K27">
-        <v>0.002323418868479086</v>
+        <v>0.002380795875400675</v>
       </c>
       <c r="L27">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="M27">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="N27">
         <v>1</v>
@@ -4895,7 +4895,7 @@
         <v>0</v>
       </c>
       <c r="Q27">
-        <v>62</v>
+        <v>95</v>
       </c>
     </row>
     <row r="28" spans="1:17">
@@ -4903,7 +4903,7 @@
         <v>33</v>
       </c>
       <c r="B28">
-        <v>0.005660603552125438</v>
+        <v>0.005734098380152201</v>
       </c>
       <c r="C28">
         <v>7</v>
@@ -4924,7 +4924,7 @@
         <v>18</v>
       </c>
       <c r="J28" s="1" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="K28">
         <v>0.002323418868479086</v>
@@ -4945,7 +4945,7 @@
         <v>0</v>
       </c>
       <c r="Q28">
-        <v>144</v>
+        <v>16</v>
       </c>
     </row>
     <row r="29" spans="1:17">
@@ -4953,7 +4953,7 @@
         <v>34</v>
       </c>
       <c r="B29">
-        <v>0.005660603552125438</v>
+        <v>0.005734098380152201</v>
       </c>
       <c r="C29">
         <v>7</v>
@@ -4974,7 +4974,7 @@
         <v>23</v>
       </c>
       <c r="J29" s="1" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="K29">
         <v>0.002323418868479086</v>
@@ -4995,7 +4995,7 @@
         <v>0</v>
       </c>
       <c r="Q29">
-        <v>152</v>
+        <v>62</v>
       </c>
     </row>
     <row r="30" spans="1:17">
@@ -5003,7 +5003,7 @@
         <v>35</v>
       </c>
       <c r="B30">
-        <v>0.005660603552125438</v>
+        <v>0.005734098380152201</v>
       </c>
       <c r="C30">
         <v>7</v>
@@ -5024,28 +5024,28 @@
         <v>19</v>
       </c>
       <c r="J30" s="1" t="s">
-        <v>162</v>
+        <v>309</v>
       </c>
       <c r="K30">
-        <v>0.002307285707018223</v>
+        <v>0.002323418868479086</v>
       </c>
       <c r="L30">
-        <v>96</v>
+        <v>20</v>
       </c>
       <c r="M30">
-        <v>98</v>
+        <v>20</v>
       </c>
       <c r="N30">
-        <v>0.98</v>
+        <v>1</v>
       </c>
       <c r="O30">
-        <v>0.02000000000000002</v>
+        <v>0</v>
       </c>
       <c r="P30" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q30">
-        <v>469</v>
+        <v>144</v>
       </c>
     </row>
     <row r="31" spans="1:17">
@@ -5053,7 +5053,7 @@
         <v>36</v>
       </c>
       <c r="B31">
-        <v>0.005660603552125438</v>
+        <v>0.005734098380152201</v>
       </c>
       <c r="C31">
         <v>7</v>
@@ -5074,16 +5074,16 @@
         <v>1</v>
       </c>
       <c r="J31" s="1" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="K31">
-        <v>0.00226458858879144</v>
+        <v>0.002323418868479086</v>
       </c>
       <c r="L31">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="M31">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="N31">
         <v>1</v>
@@ -5095,7 +5095,7 @@
         <v>0</v>
       </c>
       <c r="Q31">
-        <v>45</v>
+        <v>152</v>
       </c>
     </row>
     <row r="32" spans="1:17">
@@ -5103,7 +5103,7 @@
         <v>37</v>
       </c>
       <c r="B32">
-        <v>0.005660603552125438</v>
+        <v>0.005734098380152201</v>
       </c>
       <c r="C32">
         <v>7</v>
@@ -5124,16 +5124,16 @@
         <v>3</v>
       </c>
       <c r="J32" s="1" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="K32">
-        <v>0.002246423783151757</v>
+        <v>0.002307285707018223</v>
       </c>
       <c r="L32">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="M32">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="N32">
         <v>0.98</v>
@@ -5145,7 +5145,7 @@
         <v>1</v>
       </c>
       <c r="Q32">
-        <v>17</v>
+        <v>469</v>
       </c>
     </row>
     <row r="33" spans="1:17">
@@ -5153,7 +5153,7 @@
         <v>38</v>
       </c>
       <c r="B33">
-        <v>0.005660603552125438</v>
+        <v>0.005734098380152201</v>
       </c>
       <c r="C33">
         <v>7</v>
@@ -5174,16 +5174,16 @@
         <v>3</v>
       </c>
       <c r="J33" s="1" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="K33">
-        <v>0.002204188674901532</v>
+        <v>0.00226458858879144</v>
       </c>
       <c r="L33">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="M33">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="N33">
         <v>1</v>
@@ -5195,7 +5195,7 @@
         <v>0</v>
       </c>
       <c r="Q33">
-        <v>41</v>
+        <v>45</v>
       </c>
     </row>
     <row r="34" spans="1:17">
@@ -5203,7 +5203,7 @@
         <v>39</v>
       </c>
       <c r="B34">
-        <v>0.005240700545401631</v>
+        <v>0.005308743534418136</v>
       </c>
       <c r="C34">
         <v>6</v>
@@ -5224,28 +5224,28 @@
         <v>18</v>
       </c>
       <c r="J34" s="1" t="s">
-        <v>313</v>
+        <v>161</v>
       </c>
       <c r="K34">
-        <v>0.002204188674901532</v>
+        <v>0.002246423783151757</v>
       </c>
       <c r="L34">
-        <v>18</v>
+        <v>93</v>
       </c>
       <c r="M34">
-        <v>18</v>
+        <v>95</v>
       </c>
       <c r="N34">
-        <v>1</v>
+        <v>0.98</v>
       </c>
       <c r="O34">
-        <v>0</v>
+        <v>0.02000000000000002</v>
       </c>
       <c r="P34" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q34">
-        <v>60</v>
+        <v>17</v>
       </c>
     </row>
     <row r="35" spans="1:17">
@@ -5253,7 +5253,7 @@
         <v>40</v>
       </c>
       <c r="B35">
-        <v>0.005240700545401631</v>
+        <v>0.005308743534418136</v>
       </c>
       <c r="C35">
         <v>6</v>
@@ -5274,7 +5274,7 @@
         <v>7</v>
       </c>
       <c r="J35" s="1" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="K35">
         <v>0.002204188674901532</v>
@@ -5295,7 +5295,7 @@
         <v>0</v>
       </c>
       <c r="Q35">
-        <v>209</v>
+        <v>41</v>
       </c>
     </row>
     <row r="36" spans="1:17">
@@ -5303,7 +5303,7 @@
         <v>41</v>
       </c>
       <c r="B36">
-        <v>0.005240700545401631</v>
+        <v>0.005308743534418136</v>
       </c>
       <c r="C36">
         <v>6</v>
@@ -5324,28 +5324,28 @@
         <v>1</v>
       </c>
       <c r="J36" s="1" t="s">
-        <v>148</v>
+        <v>313</v>
       </c>
       <c r="K36">
-        <v>0.002200909808796071</v>
+        <v>0.002204188674901532</v>
       </c>
       <c r="L36">
-        <v>191</v>
+        <v>18</v>
       </c>
       <c r="M36">
-        <v>201</v>
+        <v>18</v>
       </c>
       <c r="N36">
-        <v>0.95</v>
+        <v>1</v>
       </c>
       <c r="O36">
-        <v>0.05000000000000004</v>
+        <v>0</v>
       </c>
       <c r="P36" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q36">
-        <v>139</v>
+        <v>60</v>
       </c>
     </row>
     <row r="37" spans="1:17">
@@ -5353,7 +5353,7 @@
         <v>42</v>
       </c>
       <c r="B37">
-        <v>0.005240700545401631</v>
+        <v>0.005308743534418136</v>
       </c>
       <c r="C37">
         <v>6</v>
@@ -5374,28 +5374,28 @@
         <v>8</v>
       </c>
       <c r="J37" s="1" t="s">
-        <v>150</v>
+        <v>314</v>
       </c>
       <c r="K37">
-        <v>0.002151302919496795</v>
+        <v>0.002204188674901532</v>
       </c>
       <c r="L37">
-        <v>177</v>
+        <v>18</v>
       </c>
       <c r="M37">
-        <v>186</v>
+        <v>18</v>
       </c>
       <c r="N37">
-        <v>0.95</v>
+        <v>1</v>
       </c>
       <c r="O37">
-        <v>0.05000000000000004</v>
+        <v>0</v>
       </c>
       <c r="P37" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q37">
-        <v>715</v>
+        <v>209</v>
       </c>
     </row>
     <row r="38" spans="1:17">
@@ -5403,7 +5403,7 @@
         <v>43</v>
       </c>
       <c r="B38">
-        <v>0.004784083176410167</v>
+        <v>0.004846197643017528</v>
       </c>
       <c r="C38">
         <v>5</v>
@@ -5424,28 +5424,28 @@
         <v>1</v>
       </c>
       <c r="J38" s="1" t="s">
-        <v>315</v>
+        <v>149</v>
       </c>
       <c r="K38">
-        <v>0.002142086355085607</v>
+        <v>0.002151302919496795</v>
       </c>
       <c r="L38">
-        <v>17</v>
+        <v>177</v>
       </c>
       <c r="M38">
-        <v>17</v>
+        <v>186</v>
       </c>
       <c r="N38">
-        <v>1</v>
+        <v>0.95</v>
       </c>
       <c r="O38">
-        <v>0</v>
+        <v>0.05000000000000004</v>
       </c>
       <c r="P38" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q38">
-        <v>56</v>
+        <v>715</v>
       </c>
     </row>
     <row r="39" spans="1:17">
@@ -5453,7 +5453,7 @@
         <v>44</v>
       </c>
       <c r="B39">
-        <v>0.004784083176410167</v>
+        <v>0.004846197643017528</v>
       </c>
       <c r="C39">
         <v>5</v>
@@ -5474,7 +5474,7 @@
         <v>75</v>
       </c>
       <c r="J39" s="1" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="K39">
         <v>0.002142086355085607</v>
@@ -5495,7 +5495,7 @@
         <v>0</v>
       </c>
       <c r="Q39">
-        <v>50</v>
+        <v>56</v>
       </c>
     </row>
     <row r="40" spans="1:17">
@@ -5503,7 +5503,7 @@
         <v>45</v>
       </c>
       <c r="B40">
-        <v>0.004784083176410167</v>
+        <v>0.004846197643017528</v>
       </c>
       <c r="C40">
         <v>5</v>
@@ -5524,28 +5524,28 @@
         <v>33</v>
       </c>
       <c r="J40" s="1" t="s">
-        <v>151</v>
+        <v>316</v>
       </c>
       <c r="K40">
-        <v>0.002102343613643005</v>
+        <v>0.002142086355085607</v>
       </c>
       <c r="L40">
-        <v>163</v>
+        <v>17</v>
       </c>
       <c r="M40">
-        <v>171</v>
+        <v>17</v>
       </c>
       <c r="N40">
-        <v>0.95</v>
+        <v>1</v>
       </c>
       <c r="O40">
-        <v>0.05000000000000004</v>
+        <v>0</v>
       </c>
       <c r="P40" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q40">
-        <v>68</v>
+        <v>50</v>
       </c>
     </row>
     <row r="41" spans="1:17">
@@ -5553,7 +5553,7 @@
         <v>46</v>
       </c>
       <c r="B41">
-        <v>0.004784083176410167</v>
+        <v>0.004846197643017528</v>
       </c>
       <c r="C41">
         <v>5</v>
@@ -5574,7 +5574,7 @@
         <v>4</v>
       </c>
       <c r="J41" s="1" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="K41">
         <v>0.002090263363257528</v>
@@ -5603,7 +5603,7 @@
         <v>47</v>
       </c>
       <c r="B42">
-        <v>0.004784083176410167</v>
+        <v>0.004846197643017528</v>
       </c>
       <c r="C42">
         <v>5</v>
@@ -5653,7 +5653,7 @@
         <v>48</v>
       </c>
       <c r="B43">
-        <v>0.004784083176410167</v>
+        <v>0.004846197643017528</v>
       </c>
       <c r="C43">
         <v>5</v>
@@ -5703,7 +5703,7 @@
         <v>49</v>
       </c>
       <c r="B44">
-        <v>0.004784083176410167</v>
+        <v>0.004846197643017528</v>
       </c>
       <c r="C44">
         <v>5</v>
@@ -5753,7 +5753,7 @@
         <v>50</v>
       </c>
       <c r="B45">
-        <v>0.004784083176410167</v>
+        <v>0.004846197643017528</v>
       </c>
       <c r="C45">
         <v>5</v>
@@ -5774,7 +5774,7 @@
         <v>35</v>
       </c>
       <c r="J45" s="1" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="K45">
         <v>0.002076460044255401</v>
@@ -5803,7 +5803,7 @@
         <v>51</v>
       </c>
       <c r="B46">
-        <v>0.004784083176410167</v>
+        <v>0.004846197643017528</v>
       </c>
       <c r="C46">
         <v>5</v>
@@ -5824,7 +5824,7 @@
         <v>368</v>
       </c>
       <c r="J46" s="1" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="K46">
         <v>0.00202722131808131</v>
@@ -5853,7 +5853,7 @@
         <v>52</v>
       </c>
       <c r="B47">
-        <v>0.004784083176410167</v>
+        <v>0.004846197643017528</v>
       </c>
       <c r="C47">
         <v>5</v>
@@ -5874,7 +5874,7 @@
         <v>247</v>
       </c>
       <c r="J47" s="1" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="K47">
         <v>0.002012785137170406</v>
@@ -5903,7 +5903,7 @@
         <v>53</v>
       </c>
       <c r="B48">
-        <v>0.004279014076986501</v>
+        <v>0.004334570944874581</v>
       </c>
       <c r="C48">
         <v>4</v>
@@ -5953,7 +5953,7 @@
         <v>54</v>
       </c>
       <c r="B49">
-        <v>0.004279014076986501</v>
+        <v>0.004334570944874581</v>
       </c>
       <c r="C49">
         <v>4</v>
@@ -6003,7 +6003,7 @@
         <v>55</v>
       </c>
       <c r="B50">
-        <v>0.004279014076986501</v>
+        <v>0.004334570944874581</v>
       </c>
       <c r="C50">
         <v>4</v>
@@ -6053,7 +6053,7 @@
         <v>56</v>
       </c>
       <c r="B51">
-        <v>0.004279014076986501</v>
+        <v>0.004334570944874581</v>
       </c>
       <c r="C51">
         <v>4</v>
@@ -6103,7 +6103,7 @@
         <v>57</v>
       </c>
       <c r="B52">
-        <v>0.004279014076986501</v>
+        <v>0.004334570944874581</v>
       </c>
       <c r="C52">
         <v>4</v>
@@ -6153,7 +6153,7 @@
         <v>58</v>
       </c>
       <c r="B53">
-        <v>0.004279014076986501</v>
+        <v>0.004334570944874581</v>
       </c>
       <c r="C53">
         <v>4</v>
@@ -6203,7 +6203,7 @@
         <v>59</v>
       </c>
       <c r="B54">
-        <v>0.004279014076986501</v>
+        <v>0.004334570944874581</v>
       </c>
       <c r="C54">
         <v>4</v>
@@ -6253,7 +6253,7 @@
         <v>60</v>
       </c>
       <c r="B55">
-        <v>0.004279014076986501</v>
+        <v>0.004334570944874581</v>
       </c>
       <c r="C55">
         <v>4</v>
@@ -6303,7 +6303,7 @@
         <v>61</v>
       </c>
       <c r="B56">
-        <v>0.003705734893821532</v>
+        <v>0.003753848552767304</v>
       </c>
       <c r="C56">
         <v>3</v>
@@ -6353,7 +6353,7 @@
         <v>62</v>
       </c>
       <c r="B57">
-        <v>0.003705734893821532</v>
+        <v>0.003753848552767304</v>
       </c>
       <c r="C57">
         <v>3</v>
@@ -6403,7 +6403,7 @@
         <v>63</v>
       </c>
       <c r="B58">
-        <v>0.003705734893821532</v>
+        <v>0.003753848552767304</v>
       </c>
       <c r="C58">
         <v>3</v>
@@ -6424,7 +6424,7 @@
         <v>27</v>
       </c>
       <c r="J58" s="1" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="K58">
         <v>0.001844248494304563</v>
@@ -6453,7 +6453,7 @@
         <v>64</v>
       </c>
       <c r="B59">
-        <v>0.003705734893821532</v>
+        <v>0.003753848552767304</v>
       </c>
       <c r="C59">
         <v>3</v>
@@ -6474,7 +6474,7 @@
         <v>6</v>
       </c>
       <c r="J59" s="1" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="K59">
         <v>0.001803173441692863</v>
@@ -6503,7 +6503,7 @@
         <v>65</v>
       </c>
       <c r="B60">
-        <v>0.003705734893821532</v>
+        <v>0.003753848552767304</v>
       </c>
       <c r="C60">
         <v>3</v>
@@ -6553,7 +6553,7 @@
         <v>66</v>
       </c>
       <c r="B61">
-        <v>0.003705734893821532</v>
+        <v>0.003753848552767304</v>
       </c>
       <c r="C61">
         <v>3</v>
@@ -6603,7 +6603,7 @@
         <v>67</v>
       </c>
       <c r="B62">
-        <v>0.003705734893821532</v>
+        <v>0.003753848552767304</v>
       </c>
       <c r="C62">
         <v>3</v>
@@ -6653,7 +6653,7 @@
         <v>68</v>
       </c>
       <c r="B63">
-        <v>0.003705734893821532</v>
+        <v>0.003753848552767304</v>
       </c>
       <c r="C63">
         <v>3</v>
@@ -6703,7 +6703,7 @@
         <v>69</v>
       </c>
       <c r="B64">
-        <v>0.003705734893821532</v>
+        <v>0.003753848552767304</v>
       </c>
       <c r="C64">
         <v>3</v>
@@ -6753,7 +6753,7 @@
         <v>70</v>
       </c>
       <c r="B65">
-        <v>0.003705734893821532</v>
+        <v>0.003753848552767304</v>
       </c>
       <c r="C65">
         <v>3</v>
@@ -6803,7 +6803,7 @@
         <v>71</v>
       </c>
       <c r="B66">
-        <v>0.003705734893821532</v>
+        <v>0.003753848552767304</v>
       </c>
       <c r="C66">
         <v>3</v>
@@ -6853,7 +6853,7 @@
         <v>72</v>
       </c>
       <c r="B67">
-        <v>0.003705734893821532</v>
+        <v>0.003753848552767304</v>
       </c>
       <c r="C67">
         <v>3</v>
@@ -6874,7 +6874,7 @@
         <v>9</v>
       </c>
       <c r="J67" s="1" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="K67">
         <v>0.00179917922016005</v>
@@ -6903,7 +6903,7 @@
         <v>73</v>
       </c>
       <c r="B68">
-        <v>0.003705734893821532</v>
+        <v>0.003753848552767304</v>
       </c>
       <c r="C68">
         <v>3</v>
@@ -6924,7 +6924,7 @@
         <v>16</v>
       </c>
       <c r="J68" s="1" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="K68">
         <v>0.00178321434266217</v>
@@ -6953,7 +6953,7 @@
         <v>74</v>
       </c>
       <c r="B69">
-        <v>0.003705734893821532</v>
+        <v>0.003753848552767304</v>
       </c>
       <c r="C69">
         <v>3</v>
@@ -6974,7 +6974,7 @@
         <v>3</v>
       </c>
       <c r="J69" s="1" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="K69">
         <v>0.001771705075493496</v>
@@ -7003,7 +7003,7 @@
         <v>75</v>
       </c>
       <c r="B70">
-        <v>0.003705734893821532</v>
+        <v>0.003753848552767304</v>
       </c>
       <c r="C70">
         <v>3</v>
@@ -7053,7 +7053,7 @@
         <v>76</v>
       </c>
       <c r="B71">
-        <v>0.003705734893821532</v>
+        <v>0.003753848552767304</v>
       </c>
       <c r="C71">
         <v>3</v>
@@ -7103,7 +7103,7 @@
         <v>77</v>
       </c>
       <c r="B72">
-        <v>0.003705734893821532</v>
+        <v>0.003753848552767304</v>
       </c>
       <c r="C72">
         <v>3</v>
@@ -7153,7 +7153,7 @@
         <v>78</v>
       </c>
       <c r="B73">
-        <v>0.003635633365739194</v>
+        <v>0.003682836856766761</v>
       </c>
       <c r="C73">
         <v>25</v>
@@ -7203,7 +7203,7 @@
         <v>79</v>
       </c>
       <c r="B74">
-        <v>0.003025719870629851</v>
+        <v>0.003065004508654997</v>
       </c>
       <c r="C74">
         <v>2</v>
@@ -7253,7 +7253,7 @@
         <v>80</v>
       </c>
       <c r="B75">
-        <v>0.003025719870629851</v>
+        <v>0.003065004508654997</v>
       </c>
       <c r="C75">
         <v>2</v>
@@ -7274,7 +7274,7 @@
         <v>10</v>
       </c>
       <c r="J75" s="1" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="K75">
         <v>0.001687863629014269</v>
@@ -7303,7 +7303,7 @@
         <v>81</v>
       </c>
       <c r="B76">
-        <v>0.003025719870629851</v>
+        <v>0.003065004508654997</v>
       </c>
       <c r="C76">
         <v>2</v>
@@ -7353,7 +7353,7 @@
         <v>82</v>
       </c>
       <c r="B77">
-        <v>0.003025719870629851</v>
+        <v>0.003065004508654997</v>
       </c>
       <c r="C77">
         <v>2</v>
@@ -7403,7 +7403,7 @@
         <v>83</v>
       </c>
       <c r="B78">
-        <v>0.003025719870629851</v>
+        <v>0.003065004508654997</v>
       </c>
       <c r="C78">
         <v>2</v>
@@ -7453,7 +7453,7 @@
         <v>84</v>
       </c>
       <c r="B79">
-        <v>0.003025719870629851</v>
+        <v>0.003065004508654997</v>
       </c>
       <c r="C79">
         <v>2</v>
@@ -7503,7 +7503,7 @@
         <v>85</v>
       </c>
       <c r="B80">
-        <v>0.003025719870629851</v>
+        <v>0.003065004508654997</v>
       </c>
       <c r="C80">
         <v>2</v>
@@ -7553,7 +7553,7 @@
         <v>86</v>
       </c>
       <c r="B81">
-        <v>0.003025719870629851</v>
+        <v>0.003065004508654997</v>
       </c>
       <c r="C81">
         <v>2</v>
@@ -7574,7 +7574,7 @@
         <v>4</v>
       </c>
       <c r="J81" s="1" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="K81">
         <v>0.001631497369567384</v>
@@ -7603,7 +7603,7 @@
         <v>87</v>
       </c>
       <c r="B82">
-        <v>0.003025719870629851</v>
+        <v>0.003065004508654997</v>
       </c>
       <c r="C82">
         <v>2</v>
@@ -7653,7 +7653,7 @@
         <v>88</v>
       </c>
       <c r="B83">
-        <v>0.003025719870629851</v>
+        <v>0.003065004508654997</v>
       </c>
       <c r="C83">
         <v>2</v>
@@ -7703,7 +7703,7 @@
         <v>89</v>
       </c>
       <c r="B84">
-        <v>0.003025719870629851</v>
+        <v>0.003065004508654997</v>
       </c>
       <c r="C84">
         <v>2</v>
@@ -7753,7 +7753,7 @@
         <v>90</v>
       </c>
       <c r="B85">
-        <v>0.003025719870629851</v>
+        <v>0.003065004508654997</v>
       </c>
       <c r="C85">
         <v>2</v>
@@ -7803,7 +7803,7 @@
         <v>91</v>
       </c>
       <c r="B86">
-        <v>0.003025719870629851</v>
+        <v>0.003065004508654997</v>
       </c>
       <c r="C86">
         <v>2</v>
@@ -7853,7 +7853,7 @@
         <v>92</v>
       </c>
       <c r="B87">
-        <v>0.003025719870629851</v>
+        <v>0.003065004508654997</v>
       </c>
       <c r="C87">
         <v>2</v>
@@ -7903,7 +7903,7 @@
         <v>93</v>
       </c>
       <c r="B88">
-        <v>0.003025719870629851</v>
+        <v>0.003065004508654997</v>
       </c>
       <c r="C88">
         <v>2</v>
@@ -7924,7 +7924,7 @@
         <v>16</v>
       </c>
       <c r="J88" s="1" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="K88">
         <v>0.001525675153073074</v>
@@ -7953,7 +7953,7 @@
         <v>94</v>
       </c>
       <c r="B89">
-        <v>0.002932420947868417</v>
+        <v>0.002970494233036878</v>
       </c>
       <c r="C89">
         <v>21</v>
@@ -7974,7 +7974,7 @@
         <v>1739</v>
       </c>
       <c r="J89" s="1" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="K89">
         <v>0.001499485866584483</v>
@@ -8003,7 +8003,7 @@
         <v>95</v>
       </c>
       <c r="B90">
-        <v>0.002797823248550958</v>
+        <v>0.002834148975411714</v>
       </c>
       <c r="C90">
         <v>12</v>
@@ -8024,7 +8024,7 @@
         <v>2833</v>
       </c>
       <c r="J90" s="1" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="K90">
         <v>0.001497513897859316</v>
@@ -8053,7 +8053,7 @@
         <v>96</v>
       </c>
       <c r="B91">
-        <v>0.00213950703849325</v>
+        <v>0.00216728547243729</v>
       </c>
       <c r="C91">
         <v>1</v>
@@ -8103,7 +8103,7 @@
         <v>97</v>
       </c>
       <c r="B92">
-        <v>0.00213950703849325</v>
+        <v>0.00216728547243729</v>
       </c>
       <c r="C92">
         <v>1</v>
@@ -8153,7 +8153,7 @@
         <v>98</v>
       </c>
       <c r="B93">
-        <v>0.00213950703849325</v>
+        <v>0.00216728547243729</v>
       </c>
       <c r="C93">
         <v>1</v>
@@ -8203,7 +8203,7 @@
         <v>99</v>
       </c>
       <c r="B94">
-        <v>0.00213950703849325</v>
+        <v>0.00216728547243729</v>
       </c>
       <c r="C94">
         <v>1</v>
@@ -8253,7 +8253,7 @@
         <v>100</v>
       </c>
       <c r="B95">
-        <v>0.00213950703849325</v>
+        <v>0.00216728547243729</v>
       </c>
       <c r="C95">
         <v>1</v>
@@ -8303,7 +8303,7 @@
         <v>101</v>
       </c>
       <c r="B96">
-        <v>0.00213950703849325</v>
+        <v>0.00216728547243729</v>
       </c>
       <c r="C96">
         <v>1</v>
@@ -8353,7 +8353,7 @@
         <v>102</v>
       </c>
       <c r="B97">
-        <v>0.00213950703849325</v>
+        <v>0.00216728547243729</v>
       </c>
       <c r="C97">
         <v>1</v>
@@ -8403,7 +8403,7 @@
         <v>103</v>
       </c>
       <c r="B98">
-        <v>0.00213950703849325</v>
+        <v>0.00216728547243729</v>
       </c>
       <c r="C98">
         <v>1</v>
@@ -8453,7 +8453,7 @@
         <v>104</v>
       </c>
       <c r="B99">
-        <v>0.00213950703849325</v>
+        <v>0.00216728547243729</v>
       </c>
       <c r="C99">
         <v>1</v>
@@ -8503,7 +8503,7 @@
         <v>105</v>
       </c>
       <c r="B100">
-        <v>0.00213950703849325</v>
+        <v>0.00216728547243729</v>
       </c>
       <c r="C100">
         <v>1</v>
@@ -8553,7 +8553,7 @@
         <v>106</v>
       </c>
       <c r="B101">
-        <v>0.00213950703849325</v>
+        <v>0.00216728547243729</v>
       </c>
       <c r="C101">
         <v>1</v>
@@ -8603,7 +8603,7 @@
         <v>107</v>
       </c>
       <c r="B102">
-        <v>0.00213950703849325</v>
+        <v>0.00216728547243729</v>
       </c>
       <c r="C102">
         <v>1</v>
@@ -8653,7 +8653,7 @@
         <v>108</v>
       </c>
       <c r="B103">
-        <v>0.00213950703849325</v>
+        <v>0.00216728547243729</v>
       </c>
       <c r="C103">
         <v>1</v>
@@ -8703,7 +8703,7 @@
         <v>109</v>
       </c>
       <c r="B104">
-        <v>0.00213950703849325</v>
+        <v>0.00216728547243729</v>
       </c>
       <c r="C104">
         <v>1</v>
@@ -8753,7 +8753,7 @@
         <v>110</v>
       </c>
       <c r="B105">
-        <v>0.00213950703849325</v>
+        <v>0.00216728547243729</v>
       </c>
       <c r="C105">
         <v>1</v>
@@ -8803,7 +8803,7 @@
         <v>111</v>
       </c>
       <c r="B106">
-        <v>0.00213950703849325</v>
+        <v>0.00216728547243729</v>
       </c>
       <c r="C106">
         <v>1</v>
@@ -8853,7 +8853,7 @@
         <v>112</v>
       </c>
       <c r="B107">
-        <v>0.00213950703849325</v>
+        <v>0.00216728547243729</v>
       </c>
       <c r="C107">
         <v>1</v>
@@ -8903,7 +8903,7 @@
         <v>113</v>
       </c>
       <c r="B108">
-        <v>0.00213950703849325</v>
+        <v>0.00216728547243729</v>
       </c>
       <c r="C108">
         <v>1</v>
@@ -8953,7 +8953,7 @@
         <v>114</v>
       </c>
       <c r="B109">
-        <v>0.00213950703849325</v>
+        <v>0.00216728547243729</v>
       </c>
       <c r="C109">
         <v>1</v>
@@ -9003,7 +9003,7 @@
         <v>115</v>
       </c>
       <c r="B110">
-        <v>0.00213950703849325</v>
+        <v>0.00216728547243729</v>
       </c>
       <c r="C110">
         <v>1</v>
@@ -9053,7 +9053,7 @@
         <v>116</v>
       </c>
       <c r="B111">
-        <v>0.00213950703849325</v>
+        <v>0.00216728547243729</v>
       </c>
       <c r="C111">
         <v>1</v>
@@ -9103,7 +9103,7 @@
         <v>117</v>
       </c>
       <c r="B112">
-        <v>0.00213950703849325</v>
+        <v>0.00216728547243729</v>
       </c>
       <c r="C112">
         <v>1</v>
@@ -9153,7 +9153,7 @@
         <v>118</v>
       </c>
       <c r="B113">
-        <v>0.00213950703849325</v>
+        <v>0.00216728547243729</v>
       </c>
       <c r="C113">
         <v>1</v>
@@ -9203,7 +9203,7 @@
         <v>119</v>
       </c>
       <c r="B114">
-        <v>0.00213950703849325</v>
+        <v>0.00216728547243729</v>
       </c>
       <c r="C114">
         <v>1</v>
@@ -9253,7 +9253,7 @@
         <v>120</v>
       </c>
       <c r="B115">
-        <v>0.00213950703849325</v>
+        <v>0.00216728547243729</v>
       </c>
       <c r="C115">
         <v>1</v>
@@ -9303,7 +9303,7 @@
         <v>121</v>
       </c>
       <c r="B116">
-        <v>0.00213950703849325</v>
+        <v>0.00216728547243729</v>
       </c>
       <c r="C116">
         <v>1</v>
@@ -9353,7 +9353,7 @@
         <v>122</v>
       </c>
       <c r="B117">
-        <v>0.00213950703849325</v>
+        <v>0.00216728547243729</v>
       </c>
       <c r="C117">
         <v>1</v>
@@ -9403,7 +9403,7 @@
         <v>123</v>
       </c>
       <c r="B118">
-        <v>0.00213950703849325</v>
+        <v>0.00216728547243729</v>
       </c>
       <c r="C118">
         <v>1</v>
@@ -9453,7 +9453,7 @@
         <v>124</v>
       </c>
       <c r="B119">
-        <v>0.00213950703849325</v>
+        <v>0.00216728547243729</v>
       </c>
       <c r="C119">
         <v>1</v>
@@ -9474,7 +9474,7 @@
         <v>9</v>
       </c>
       <c r="J119" s="1" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="K119">
         <v>0.001309180678525598</v>
@@ -9503,7 +9503,7 @@
         <v>125</v>
       </c>
       <c r="B120">
-        <v>0.00213950703849325</v>
+        <v>0.00216728547243729</v>
       </c>
       <c r="C120">
         <v>1</v>
@@ -9524,7 +9524,7 @@
         <v>24</v>
       </c>
       <c r="J120" s="1" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="K120">
         <v>0.001304080616515837</v>
@@ -9553,7 +9553,7 @@
         <v>126</v>
       </c>
       <c r="B121">
-        <v>0.00213950703849325</v>
+        <v>0.00216728547243729</v>
       </c>
       <c r="C121">
         <v>1</v>
@@ -9603,7 +9603,7 @@
         <v>127</v>
       </c>
       <c r="B122">
-        <v>0.00213950703849325</v>
+        <v>0.00216728547243729</v>
       </c>
       <c r="C122">
         <v>1</v>
@@ -9653,7 +9653,7 @@
         <v>128</v>
       </c>
       <c r="B123">
-        <v>0.00213950703849325</v>
+        <v>0.00216728547243729</v>
       </c>
       <c r="C123">
         <v>1</v>
@@ -9703,7 +9703,7 @@
         <v>129</v>
       </c>
       <c r="B124">
-        <v>0.00213950703849325</v>
+        <v>0.00216728547243729</v>
       </c>
       <c r="C124">
         <v>1</v>
@@ -9753,7 +9753,7 @@
         <v>130</v>
       </c>
       <c r="B125">
-        <v>0.00213950703849325</v>
+        <v>0.00216728547243729</v>
       </c>
       <c r="C125">
         <v>1</v>
@@ -9803,7 +9803,7 @@
         <v>131</v>
       </c>
       <c r="B126">
-        <v>0.00213950703849325</v>
+        <v>0.00216728547243729</v>
       </c>
       <c r="C126">
         <v>1</v>
@@ -9853,7 +9853,7 @@
         <v>132</v>
       </c>
       <c r="B127">
-        <v>0.00213950703849325</v>
+        <v>0.00216728547243729</v>
       </c>
       <c r="C127">
         <v>1</v>
@@ -9903,7 +9903,7 @@
         <v>133</v>
       </c>
       <c r="B128">
-        <v>0.00213950703849325</v>
+        <v>0.00216728547243729</v>
       </c>
       <c r="C128">
         <v>1</v>
@@ -9953,7 +9953,7 @@
         <v>134</v>
       </c>
       <c r="B129">
-        <v>0.00213950703849325</v>
+        <v>0.00216728547243729</v>
       </c>
       <c r="C129">
         <v>1</v>
@@ -10003,7 +10003,7 @@
         <v>135</v>
       </c>
       <c r="B130">
-        <v>0.00213950703849325</v>
+        <v>0.00216728547243729</v>
       </c>
       <c r="C130">
         <v>1</v>
@@ -10053,7 +10053,7 @@
         <v>136</v>
       </c>
       <c r="B131">
-        <v>0.00213950703849325</v>
+        <v>0.00216728547243729</v>
       </c>
       <c r="C131">
         <v>1</v>
@@ -10103,7 +10103,7 @@
         <v>137</v>
       </c>
       <c r="B132">
-        <v>0.00213950703849325</v>
+        <v>0.00216728547243729</v>
       </c>
       <c r="C132">
         <v>1</v>
@@ -10153,7 +10153,7 @@
         <v>138</v>
       </c>
       <c r="B133">
-        <v>0.00213950703849325</v>
+        <v>0.00216728547243729</v>
       </c>
       <c r="C133">
         <v>1</v>
@@ -10203,7 +10203,7 @@
         <v>139</v>
       </c>
       <c r="B134">
-        <v>0.00213950703849325</v>
+        <v>0.00216728547243729</v>
       </c>
       <c r="C134">
         <v>1</v>
@@ -10253,7 +10253,7 @@
         <v>140</v>
       </c>
       <c r="B135">
-        <v>0.00213950703849325</v>
+        <v>0.00216728547243729</v>
       </c>
       <c r="C135">
         <v>1</v>
@@ -10303,7 +10303,7 @@
         <v>141</v>
       </c>
       <c r="B136">
-        <v>0.00213950703849325</v>
+        <v>0.00216728547243729</v>
       </c>
       <c r="C136">
         <v>1</v>
@@ -10353,7 +10353,7 @@
         <v>142</v>
       </c>
       <c r="B137">
-        <v>0.00213950703849325</v>
+        <v>0.00216728547243729</v>
       </c>
       <c r="C137">
         <v>1</v>
@@ -10403,7 +10403,7 @@
         <v>143</v>
       </c>
       <c r="B138">
-        <v>0.00213950703849325</v>
+        <v>0.00216728547243729</v>
       </c>
       <c r="C138">
         <v>1</v>
@@ -10453,7 +10453,7 @@
         <v>144</v>
       </c>
       <c r="B139">
-        <v>0.00213950703849325</v>
+        <v>0.00216728547243729</v>
       </c>
       <c r="C139">
         <v>1</v>
@@ -10503,7 +10503,7 @@
         <v>145</v>
       </c>
       <c r="B140">
-        <v>0.00213950703849325</v>
+        <v>0.00216728547243729</v>
       </c>
       <c r="C140">
         <v>1</v>
@@ -10553,7 +10553,7 @@
         <v>146</v>
       </c>
       <c r="B141">
-        <v>0.00213950703849325</v>
+        <v>0.00216728547243729</v>
       </c>
       <c r="C141">
         <v>1</v>
@@ -10603,7 +10603,7 @@
         <v>147</v>
       </c>
       <c r="B142">
-        <v>0.00213950703849325</v>
+        <v>0.00216728547243729</v>
       </c>
       <c r="C142">
         <v>1</v>
@@ -10653,28 +10653,28 @@
         <v>148</v>
       </c>
       <c r="B143">
-        <v>0.00207389501532141</v>
+        <v>0.002087599243567229</v>
       </c>
       <c r="C143">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="D143">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="E143">
-        <v>0.95</v>
+        <v>0.96</v>
       </c>
       <c r="F143">
-        <v>0.05000000000000004</v>
+        <v>0.04000000000000004</v>
       </c>
       <c r="G143" t="b">
         <v>1</v>
       </c>
       <c r="H143">
-        <v>139</v>
+        <v>696</v>
       </c>
       <c r="J143" s="1" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="K143">
         <v>0.001241314036880312</v>
@@ -10703,28 +10703,28 @@
         <v>149</v>
       </c>
       <c r="B144">
-        <v>0.002060842160374195</v>
+        <v>0.00202367046778172</v>
       </c>
       <c r="C144">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="D144">
-        <v>198</v>
+        <v>186</v>
       </c>
       <c r="E144">
-        <v>0.96</v>
+        <v>0.95</v>
       </c>
       <c r="F144">
-        <v>0.04000000000000004</v>
+        <v>0.05000000000000004</v>
       </c>
       <c r="G144" t="b">
         <v>1</v>
       </c>
       <c r="H144">
-        <v>696</v>
+        <v>715</v>
       </c>
       <c r="J144" s="1" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="K144">
         <v>0.001185784264800286</v>
@@ -10753,25 +10753,25 @@
         <v>150</v>
       </c>
       <c r="B145">
-        <v>0.001997732769620268</v>
+        <v>0.001921963770011721</v>
       </c>
       <c r="C145">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="D145">
-        <v>186</v>
+        <v>216</v>
       </c>
       <c r="E145">
-        <v>0.95</v>
+        <v>0.99</v>
       </c>
       <c r="F145">
-        <v>0.05000000000000004</v>
+        <v>0.01000000000000001</v>
       </c>
       <c r="G145" t="b">
         <v>1</v>
       </c>
       <c r="H145">
-        <v>715</v>
+        <v>167</v>
       </c>
       <c r="J145" s="1" t="s">
         <v>403</v>
@@ -10803,13 +10803,13 @@
         <v>151</v>
       </c>
       <c r="B146">
-        <v>0.001918033095819915</v>
+        <v>0.001845419574810623</v>
       </c>
       <c r="C146">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D146">
-        <v>171</v>
+        <v>154</v>
       </c>
       <c r="E146">
         <v>0.95</v>
@@ -10821,7 +10821,7 @@
         <v>1</v>
       </c>
       <c r="H146">
-        <v>68</v>
+        <v>141</v>
       </c>
       <c r="J146" s="1" t="s">
         <v>404</v>
@@ -10853,25 +10853,25 @@
         <v>152</v>
       </c>
       <c r="B147">
-        <v>0.001897329662365501</v>
+        <v>0.001738819412641252</v>
       </c>
       <c r="C147">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="D147">
-        <v>216</v>
+        <v>138</v>
       </c>
       <c r="E147">
-        <v>0.99</v>
+        <v>0.95</v>
       </c>
       <c r="F147">
-        <v>0.01000000000000001</v>
+        <v>0.05000000000000004</v>
       </c>
       <c r="G147" t="b">
         <v>1</v>
       </c>
       <c r="H147">
-        <v>167</v>
+        <v>280</v>
       </c>
       <c r="J147" s="1" t="s">
         <v>405</v>
@@ -10903,25 +10903,25 @@
         <v>153</v>
       </c>
       <c r="B148">
-        <v>0.001821766545982692</v>
+        <v>0.001577969700672309</v>
       </c>
       <c r="C148">
         <v>7</v>
       </c>
       <c r="D148">
-        <v>154</v>
+        <v>117</v>
       </c>
       <c r="E148">
-        <v>0.95</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="F148">
-        <v>0.05000000000000004</v>
+        <v>0.06000000000000005</v>
       </c>
       <c r="G148" t="b">
         <v>1</v>
       </c>
       <c r="H148">
-        <v>141</v>
+        <v>750</v>
       </c>
       <c r="J148" s="1" t="s">
         <v>406</v>
@@ -10953,25 +10953,25 @@
         <v>154</v>
       </c>
       <c r="B149">
-        <v>0.001716532694620506</v>
+        <v>0.001574920108241503</v>
       </c>
       <c r="C149">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="D149">
-        <v>138</v>
+        <v>12</v>
       </c>
       <c r="E149">
-        <v>0.95</v>
+        <v>0.08</v>
       </c>
       <c r="F149">
-        <v>0.05000000000000004</v>
+        <v>0.92</v>
       </c>
       <c r="G149" t="b">
         <v>1</v>
       </c>
       <c r="H149">
-        <v>280</v>
+        <v>43</v>
       </c>
       <c r="J149" s="1" t="s">
         <v>407</v>
@@ -11003,13 +11003,13 @@
         <v>155</v>
       </c>
       <c r="B150">
-        <v>0.001557744618350077</v>
+        <v>0.001536111328638734</v>
       </c>
       <c r="C150">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D150">
-        <v>117</v>
+        <v>109</v>
       </c>
       <c r="E150">
         <v>0.9399999999999999</v>
@@ -11021,7 +11021,7 @@
         <v>1</v>
       </c>
       <c r="H150">
-        <v>750</v>
+        <v>541</v>
       </c>
       <c r="J150" s="1" t="s">
         <v>408</v>
@@ -11053,25 +11053,25 @@
         <v>156</v>
       </c>
       <c r="B151">
-        <v>0.001554734113018305</v>
+        <v>0.001502879332725589</v>
       </c>
       <c r="C151">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="D151">
-        <v>12</v>
+        <v>102</v>
       </c>
       <c r="E151">
-        <v>0.08</v>
+        <v>0.96</v>
       </c>
       <c r="F151">
-        <v>0.92</v>
+        <v>0.04000000000000004</v>
       </c>
       <c r="G151" t="b">
         <v>1</v>
       </c>
       <c r="H151">
-        <v>43</v>
+        <v>1059</v>
       </c>
       <c r="J151" s="1" t="s">
         <v>409</v>
@@ -11103,25 +11103,25 @@
         <v>157</v>
       </c>
       <c r="B152">
-        <v>0.001516422751561116</v>
+        <v>0.001493071520327339</v>
       </c>
       <c r="C152">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="D152">
-        <v>109</v>
+        <v>122</v>
       </c>
       <c r="E152">
-        <v>0.9399999999999999</v>
+        <v>0.98</v>
       </c>
       <c r="F152">
-        <v>0.06000000000000005</v>
+        <v>0.02000000000000002</v>
       </c>
       <c r="G152" t="b">
         <v>1</v>
       </c>
       <c r="H152">
-        <v>541</v>
+        <v>38</v>
       </c>
       <c r="J152" s="1" t="s">
         <v>410</v>
@@ -11153,25 +11153,25 @@
         <v>158</v>
       </c>
       <c r="B153">
-        <v>0.001483616695292306</v>
+        <v>0.001492887648749198</v>
       </c>
       <c r="C153">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D153">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="E153">
-        <v>0.96</v>
+        <v>0.97</v>
       </c>
       <c r="F153">
-        <v>0.04000000000000004</v>
+        <v>0.03000000000000003</v>
       </c>
       <c r="G153" t="b">
         <v>1</v>
       </c>
       <c r="H153">
-        <v>1059</v>
+        <v>16</v>
       </c>
       <c r="J153" s="1" t="s">
         <v>411</v>
@@ -11203,25 +11203,25 @@
         <v>159</v>
       </c>
       <c r="B154">
-        <v>0.001473934591146294</v>
+        <v>0.001456349314979046</v>
       </c>
       <c r="C154">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D154">
-        <v>122</v>
+        <v>97</v>
       </c>
       <c r="E154">
-        <v>0.98</v>
+        <v>0.95</v>
       </c>
       <c r="F154">
-        <v>0.02000000000000002</v>
+        <v>0.05000000000000004</v>
       </c>
       <c r="G154" t="b">
         <v>1</v>
       </c>
       <c r="H154">
-        <v>38</v>
+        <v>319</v>
       </c>
       <c r="J154" s="1" t="s">
         <v>412</v>
@@ -11253,25 +11253,25 @@
         <v>160</v>
       </c>
       <c r="B155">
-        <v>0.00147375307627868</v>
+        <v>0.001389262659165914</v>
       </c>
       <c r="C155">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D155">
-        <v>104</v>
+        <v>98</v>
       </c>
       <c r="E155">
-        <v>0.97</v>
+        <v>0.98</v>
       </c>
       <c r="F155">
-        <v>0.03000000000000003</v>
+        <v>0.02000000000000002</v>
       </c>
       <c r="G155" t="b">
         <v>1</v>
       </c>
       <c r="H155">
-        <v>16</v>
+        <v>469</v>
       </c>
       <c r="J155" s="1" t="s">
         <v>413</v>
@@ -11303,25 +11303,25 @@
         <v>161</v>
       </c>
       <c r="B156">
-        <v>0.001437683059997833</v>
+        <v>0.001374259721116902</v>
       </c>
       <c r="C156">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D156">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="E156">
-        <v>0.95</v>
+        <v>0.98</v>
       </c>
       <c r="F156">
-        <v>0.05000000000000004</v>
+        <v>0.02000000000000002</v>
       </c>
       <c r="G156" t="b">
         <v>1</v>
       </c>
       <c r="H156">
-        <v>319</v>
+        <v>17</v>
       </c>
       <c r="J156" s="1" t="s">
         <v>414</v>
@@ -11353,25 +11353,25 @@
         <v>162</v>
       </c>
       <c r="B157">
-        <v>0.001371456264254236</v>
+        <v>0.001287261974291233</v>
       </c>
       <c r="C157">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D157">
-        <v>98</v>
+        <v>76</v>
       </c>
       <c r="E157">
-        <v>0.98</v>
+        <v>0.95</v>
       </c>
       <c r="F157">
-        <v>0.02000000000000002</v>
+        <v>0.05000000000000004</v>
       </c>
       <c r="G157" t="b">
         <v>1</v>
       </c>
       <c r="H157">
-        <v>469</v>
+        <v>30</v>
       </c>
       <c r="J157" s="1" t="s">
         <v>415</v>
@@ -11403,25 +11403,25 @@
         <v>163</v>
       </c>
       <c r="B158">
-        <v>0.001356645621188447</v>
+        <v>0.001264800944665654</v>
       </c>
       <c r="C158">
         <v>2</v>
       </c>
       <c r="D158">
-        <v>95</v>
+        <v>76</v>
       </c>
       <c r="E158">
-        <v>0.98</v>
+        <v>0.97</v>
       </c>
       <c r="F158">
-        <v>0.02000000000000002</v>
+        <v>0.03000000000000003</v>
       </c>
       <c r="G158" t="b">
         <v>1</v>
       </c>
       <c r="H158">
-        <v>17</v>
+        <v>139</v>
       </c>
       <c r="J158" s="1" t="s">
         <v>416</v>
@@ -11453,25 +11453,25 @@
         <v>164</v>
       </c>
       <c r="B159">
-        <v>0.001270762937973092</v>
+        <v>0.001240194512199518</v>
       </c>
       <c r="C159">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D159">
-        <v>76</v>
+        <v>110</v>
       </c>
       <c r="E159">
-        <v>0.95</v>
+        <v>0.99</v>
       </c>
       <c r="F159">
-        <v>0.05000000000000004</v>
+        <v>0.01000000000000001</v>
       </c>
       <c r="G159" t="b">
         <v>1</v>
       </c>
       <c r="H159">
-        <v>30</v>
+        <v>18</v>
       </c>
       <c r="J159" s="1" t="s">
         <v>417</v>
@@ -11503,13 +11503,13 @@
         <v>165</v>
       </c>
       <c r="B160">
-        <v>0.001248589794846871</v>
+        <v>0.001216518049981771</v>
       </c>
       <c r="C160">
         <v>2</v>
       </c>
       <c r="D160">
-        <v>76</v>
+        <v>69</v>
       </c>
       <c r="E160">
         <v>0.97</v>
@@ -11521,7 +11521,7 @@
         <v>1</v>
       </c>
       <c r="H160">
-        <v>139</v>
+        <v>13</v>
       </c>
       <c r="J160" s="1" t="s">
         <v>418</v>
@@ -11553,25 +11553,25 @@
         <v>166</v>
       </c>
       <c r="B161">
-        <v>0.00122429874684095</v>
+        <v>0.001175458617188128</v>
       </c>
       <c r="C161">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="D161">
-        <v>110</v>
+        <v>73</v>
       </c>
       <c r="E161">
-        <v>0.99</v>
+        <v>0.92</v>
       </c>
       <c r="F161">
-        <v>0.01000000000000001</v>
+        <v>0.07999999999999996</v>
       </c>
       <c r="G161" t="b">
         <v>1</v>
       </c>
       <c r="H161">
-        <v>18</v>
+        <v>254</v>
       </c>
       <c r="J161" s="1" t="s">
         <v>419</v>
@@ -11603,25 +11603,25 @@
         <v>167</v>
       </c>
       <c r="B162">
-        <v>0.001200925749510552</v>
+        <v>0.001172077647839063</v>
       </c>
       <c r="C162">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D162">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="E162">
-        <v>0.97</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="F162">
-        <v>0.03000000000000003</v>
+        <v>0.06000000000000005</v>
       </c>
       <c r="G162" t="b">
         <v>1</v>
       </c>
       <c r="H162">
-        <v>13</v>
+        <v>29</v>
       </c>
       <c r="J162" s="1" t="s">
         <v>420</v>
@@ -11653,25 +11653,25 @@
         <v>168</v>
       </c>
       <c r="B163">
-        <v>0.001160392581833408</v>
+        <v>0.001082149800838172</v>
       </c>
       <c r="C163">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D163">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="E163">
-        <v>0.92</v>
+        <v>0.9</v>
       </c>
       <c r="F163">
-        <v>0.07999999999999996</v>
+        <v>0.09999999999999998</v>
       </c>
       <c r="G163" t="b">
         <v>1</v>
       </c>
       <c r="H163">
-        <v>254</v>
+        <v>279</v>
       </c>
       <c r="J163" s="1" t="s">
         <v>421</v>
@@ -11703,25 +11703,25 @@
         <v>169</v>
       </c>
       <c r="B164">
-        <v>0.001157054946892718</v>
+        <v>0.001081553323132519</v>
       </c>
       <c r="C164">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D164">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="E164">
-        <v>0.9399999999999999</v>
+        <v>0.98</v>
       </c>
       <c r="F164">
-        <v>0.06000000000000005</v>
+        <v>0.02000000000000002</v>
       </c>
       <c r="G164" t="b">
         <v>1</v>
       </c>
       <c r="H164">
-        <v>29</v>
+        <v>242</v>
       </c>
       <c r="J164" s="1" t="s">
         <v>422</v>
@@ -11753,25 +11753,25 @@
         <v>170</v>
       </c>
       <c r="B165">
-        <v>0.001068279719050407</v>
+        <v>0.001066363270302713</v>
       </c>
       <c r="C165">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="D165">
-        <v>70</v>
+        <v>63</v>
       </c>
       <c r="E165">
-        <v>0.9</v>
+        <v>0.98</v>
       </c>
       <c r="F165">
-        <v>0.09999999999999998</v>
+        <v>0.02000000000000002</v>
       </c>
       <c r="G165" t="b">
         <v>1</v>
       </c>
       <c r="H165">
-        <v>279</v>
+        <v>96</v>
       </c>
       <c r="J165" s="1" t="s">
         <v>423</v>
@@ -11803,25 +11803,25 @@
         <v>171</v>
       </c>
       <c r="B166">
-        <v>0.001067690886491994</v>
+        <v>0.001031443327633279</v>
       </c>
       <c r="C166">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D166">
-        <v>66</v>
+        <v>48</v>
       </c>
       <c r="E166">
-        <v>0.98</v>
+        <v>0.96</v>
       </c>
       <c r="F166">
-        <v>0.02000000000000002</v>
+        <v>0.04000000000000004</v>
       </c>
       <c r="G166" t="b">
         <v>1</v>
       </c>
       <c r="H166">
-        <v>242</v>
+        <v>167</v>
       </c>
       <c r="J166" s="1" t="s">
         <v>424</v>
@@ -11853,13 +11853,13 @@
         <v>172</v>
       </c>
       <c r="B167">
-        <v>0.001052695526924568</v>
+        <v>0.001021365425544999</v>
       </c>
       <c r="C167">
         <v>1</v>
       </c>
       <c r="D167">
-        <v>63</v>
+        <v>55</v>
       </c>
       <c r="E167">
         <v>0.98</v>
@@ -11871,7 +11871,7 @@
         <v>1</v>
       </c>
       <c r="H167">
-        <v>96</v>
+        <v>4</v>
       </c>
       <c r="J167" s="1" t="s">
         <v>425</v>
@@ -11903,25 +11903,25 @@
         <v>173</v>
       </c>
       <c r="B168">
-        <v>0.001018223158574766</v>
+        <v>0.00101521283622363</v>
       </c>
       <c r="C168">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D168">
-        <v>48</v>
+        <v>54</v>
       </c>
       <c r="E168">
-        <v>0.96</v>
+        <v>0.98</v>
       </c>
       <c r="F168">
-        <v>0.04000000000000004</v>
+        <v>0.02000000000000002</v>
       </c>
       <c r="G168" t="b">
         <v>1</v>
       </c>
       <c r="H168">
-        <v>167</v>
+        <v>109</v>
       </c>
       <c r="J168" s="1" t="s">
         <v>426</v>
@@ -11953,25 +11953,25 @@
         <v>174</v>
       </c>
       <c r="B169">
-        <v>0.001008274426520158</v>
+        <v>0.0009980640160148131</v>
       </c>
       <c r="C169">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D169">
-        <v>55</v>
+        <v>45</v>
       </c>
       <c r="E169">
-        <v>0.98</v>
+        <v>0.96</v>
       </c>
       <c r="F169">
-        <v>0.02000000000000002</v>
+        <v>0.04000000000000004</v>
       </c>
       <c r="G169" t="b">
         <v>1</v>
       </c>
       <c r="H169">
-        <v>4</v>
+        <v>114</v>
       </c>
       <c r="J169" s="1" t="s">
         <v>427</v>
@@ -12003,13 +12003,13 @@
         <v>175</v>
       </c>
       <c r="B170">
-        <v>0.001002200695890098</v>
+        <v>0.000982357047145473</v>
       </c>
       <c r="C170">
         <v>1</v>
       </c>
       <c r="D170">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="E170">
         <v>0.98</v>
@@ -12021,7 +12021,7 @@
         <v>1</v>
       </c>
       <c r="H170">
-        <v>109</v>
+        <v>40</v>
       </c>
       <c r="J170" s="1" t="s">
         <v>428</v>
@@ -12053,25 +12053,25 @@
         <v>176</v>
       </c>
       <c r="B171">
-        <v>0.0009852716747688712</v>
+        <v>0.0008943493248242354</v>
       </c>
       <c r="C171">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D171">
-        <v>45</v>
+        <v>38</v>
       </c>
       <c r="E171">
-        <v>0.96</v>
+        <v>0.97</v>
       </c>
       <c r="F171">
-        <v>0.04000000000000004</v>
+        <v>0.03000000000000003</v>
       </c>
       <c r="G171" t="b">
         <v>1</v>
       </c>
       <c r="H171">
-        <v>114</v>
+        <v>8</v>
       </c>
       <c r="J171" s="1" t="s">
         <v>429</v>
@@ -12103,25 +12103,25 @@
         <v>177</v>
       </c>
       <c r="B172">
-        <v>0.0009697660245549396</v>
+        <v>0.000889117252391592</v>
       </c>
       <c r="C172">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D172">
-        <v>49</v>
+        <v>40</v>
       </c>
       <c r="E172">
-        <v>0.98</v>
+        <v>0.93</v>
       </c>
       <c r="F172">
-        <v>0.02000000000000002</v>
+        <v>0.06999999999999995</v>
       </c>
       <c r="G172" t="b">
         <v>1</v>
       </c>
       <c r="H172">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="J172" s="1" t="s">
         <v>430</v>
@@ -12153,25 +12153,25 @@
         <v>178</v>
       </c>
       <c r="B173">
-        <v>0.0008828863108565425</v>
+        <v>0.000889117252391592</v>
       </c>
       <c r="C173">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D173">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="E173">
-        <v>0.97</v>
+        <v>0.93</v>
       </c>
       <c r="F173">
-        <v>0.03000000000000003</v>
+        <v>0.06999999999999995</v>
       </c>
       <c r="G173" t="b">
         <v>1</v>
       </c>
       <c r="H173">
-        <v>8</v>
+        <v>197</v>
       </c>
       <c r="J173" s="1" t="s">
         <v>431</v>
@@ -12203,28 +12203,28 @@
         <v>179</v>
       </c>
       <c r="B174">
-        <v>0.0008777212987075161</v>
+        <v>0.0008752885554866971</v>
       </c>
       <c r="C174">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D174">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="E174">
-        <v>0.93</v>
+        <v>0.97</v>
       </c>
       <c r="F174">
-        <v>0.06999999999999995</v>
+        <v>0.03000000000000003</v>
       </c>
       <c r="G174" t="b">
         <v>1</v>
       </c>
       <c r="H174">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="J174" s="1" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="K174">
         <v>0.001112320907535263</v>
@@ -12253,28 +12253,28 @@
         <v>180</v>
       </c>
       <c r="B175">
-        <v>0.0008777212987075161</v>
+        <v>0.0008333987779273398</v>
       </c>
       <c r="C175">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D175">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="E175">
-        <v>0.93</v>
+        <v>0.97</v>
       </c>
       <c r="F175">
-        <v>0.06999999999999995</v>
+        <v>0.03000000000000003</v>
       </c>
       <c r="G175" t="b">
         <v>1</v>
       </c>
       <c r="H175">
-        <v>197</v>
+        <v>99</v>
       </c>
       <c r="J175" s="1" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="K175">
         <v>0.001112320907535263</v>
@@ -12303,13 +12303,13 @@
         <v>181</v>
       </c>
       <c r="B176">
-        <v>0.0008640698463550301</v>
+        <v>0.0008333987779273398</v>
       </c>
       <c r="C176">
         <v>1</v>
       </c>
       <c r="D176">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="E176">
         <v>0.97</v>
@@ -12321,10 +12321,10 @@
         <v>1</v>
       </c>
       <c r="H176">
-        <v>22</v>
+        <v>33</v>
       </c>
       <c r="J176" s="1" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="K176">
         <v>0.00110936388155713</v>
@@ -12353,13 +12353,13 @@
         <v>182</v>
       </c>
       <c r="B177">
-        <v>0.0008227169765697809</v>
+        <v>0.0008220276103916115</v>
       </c>
       <c r="C177">
         <v>1</v>
       </c>
       <c r="D177">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E177">
         <v>0.97</v>
@@ -12371,10 +12371,10 @@
         <v>1</v>
       </c>
       <c r="H177">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="J177" s="1" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="K177">
         <v>0.001097204802519311</v>
@@ -12403,28 +12403,28 @@
         <v>183</v>
       </c>
       <c r="B178">
-        <v>0.0008227169765697809</v>
+        <v>0.0008207084355411734</v>
       </c>
       <c r="C178">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D178">
         <v>32</v>
       </c>
       <c r="E178">
-        <v>0.97</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="F178">
-        <v>0.03000000000000003</v>
+        <v>0.06000000000000005</v>
       </c>
       <c r="G178" t="b">
         <v>1</v>
       </c>
       <c r="H178">
-        <v>33</v>
+        <v>65</v>
       </c>
       <c r="J178" s="1" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="K178">
         <v>0.001079303105157809</v>
@@ -12453,13 +12453,13 @@
         <v>184</v>
       </c>
       <c r="B179">
-        <v>0.0008114915550514901</v>
+        <v>0.0008102506858914499</v>
       </c>
       <c r="C179">
         <v>1</v>
       </c>
       <c r="D179">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E179">
         <v>0.97</v>
@@ -12474,7 +12474,7 @@
         <v>103</v>
       </c>
       <c r="J179" s="1" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="K179">
         <v>0.001045959335593459</v>
@@ -12503,28 +12503,28 @@
         <v>185</v>
       </c>
       <c r="B180">
-        <v>0.0008101892882696522</v>
+        <v>0.0008102506858914499</v>
       </c>
       <c r="C180">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D180">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="E180">
-        <v>0.9399999999999999</v>
+        <v>0.97</v>
       </c>
       <c r="F180">
-        <v>0.06000000000000005</v>
+        <v>0.03000000000000003</v>
       </c>
       <c r="G180" t="b">
         <v>1</v>
       </c>
       <c r="H180">
-        <v>65</v>
+        <v>117</v>
       </c>
       <c r="J180" s="1" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="K180">
         <v>0.001045959335593459</v>
@@ -12553,25 +12553,25 @@
         <v>186</v>
       </c>
       <c r="B181">
-        <v>0.0007998655772186928</v>
+        <v>0.0008041769711390557</v>
       </c>
       <c r="C181">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D181">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="E181">
-        <v>0.97</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="F181">
-        <v>0.03000000000000003</v>
+        <v>0.06000000000000005</v>
       </c>
       <c r="G181" t="b">
         <v>1</v>
       </c>
       <c r="H181">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="J181" s="1" t="s">
         <v>432</v>
@@ -12603,25 +12603,25 @@
         <v>187</v>
       </c>
       <c r="B182">
-        <v>0.0007998655772186928</v>
+        <v>0.0007722008766506938</v>
       </c>
       <c r="C182">
         <v>1</v>
       </c>
       <c r="D182">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="E182">
-        <v>0.97</v>
+        <v>0.96</v>
       </c>
       <c r="F182">
-        <v>0.03000000000000003</v>
+        <v>0.04000000000000004</v>
       </c>
       <c r="G182" t="b">
         <v>1</v>
       </c>
       <c r="H182">
-        <v>117</v>
+        <v>254</v>
       </c>
       <c r="J182" s="1" t="s">
         <v>433</v>
@@ -12653,25 +12653,25 @@
         <v>188</v>
       </c>
       <c r="B183">
-        <v>0.0007938697102100272</v>
+        <v>0.0007694865355907745</v>
       </c>
       <c r="C183">
         <v>2</v>
       </c>
       <c r="D183">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="E183">
-        <v>0.9399999999999999</v>
+        <v>0.93</v>
       </c>
       <c r="F183">
-        <v>0.06000000000000005</v>
+        <v>0.06999999999999995</v>
       </c>
       <c r="G183" t="b">
         <v>1</v>
       </c>
       <c r="H183">
-        <v>106</v>
+        <v>156</v>
       </c>
       <c r="J183" s="1" t="s">
         <v>434</v>
@@ -12703,13 +12703,13 @@
         <v>189</v>
       </c>
       <c r="B184">
-        <v>0.0007623034582827073</v>
+        <v>0.0007137839407634433</v>
       </c>
       <c r="C184">
         <v>1</v>
       </c>
       <c r="D184">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="E184">
         <v>0.96</v>
@@ -12721,7 +12721,7 @@
         <v>1</v>
       </c>
       <c r="H184">
-        <v>254</v>
+        <v>34</v>
       </c>
       <c r="J184" s="1" t="s">
         <v>435</v>
@@ -12753,25 +12753,25 @@
         <v>190</v>
       </c>
       <c r="B185">
-        <v>0.0007596239073530195</v>
+        <v>0.0006975030370742092</v>
       </c>
       <c r="C185">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D185">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="E185">
-        <v>0.93</v>
+        <v>0.95</v>
       </c>
       <c r="F185">
-        <v>0.06999999999999995</v>
+        <v>0.05000000000000004</v>
       </c>
       <c r="G185" t="b">
         <v>1</v>
       </c>
       <c r="H185">
-        <v>156</v>
+        <v>39</v>
       </c>
       <c r="J185" s="1" t="s">
         <v>436</v>
@@ -12803,25 +12803,25 @@
         <v>191</v>
       </c>
       <c r="B186">
-        <v>0.0007046352613204368</v>
+        <v>0.0006925894284369038</v>
       </c>
       <c r="C186">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D186">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="E186">
-        <v>0.96</v>
+        <v>0.92</v>
       </c>
       <c r="F186">
-        <v>0.04000000000000004</v>
+        <v>0.07999999999999996</v>
       </c>
       <c r="G186" t="b">
         <v>1</v>
       </c>
       <c r="H186">
-        <v>34</v>
+        <v>87</v>
       </c>
       <c r="J186" s="1" t="s">
         <v>437</v>
@@ -12853,13 +12853,13 @@
         <v>192</v>
       </c>
       <c r="B187">
-        <v>0.0006885630324981883</v>
+        <v>0.000680433934253617</v>
       </c>
       <c r="C187">
         <v>1</v>
       </c>
       <c r="D187">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E187">
         <v>0.95</v>
@@ -12871,7 +12871,7 @@
         <v>1</v>
       </c>
       <c r="H187">
-        <v>39</v>
+        <v>91</v>
       </c>
       <c r="J187" s="1" t="s">
         <v>438</v>
@@ -12903,25 +12903,25 @@
         <v>193</v>
       </c>
       <c r="B188">
-        <v>0.0006837124023446563</v>
+        <v>0.0006625041329560333</v>
       </c>
       <c r="C188">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D188">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="E188">
-        <v>0.92</v>
+        <v>0.95</v>
       </c>
       <c r="F188">
-        <v>0.07999999999999996</v>
+        <v>0.05000000000000004</v>
       </c>
       <c r="G188" t="b">
         <v>1</v>
       </c>
       <c r="H188">
-        <v>87</v>
+        <v>108</v>
       </c>
       <c r="J188" s="1" t="s">
         <v>439</v>
@@ -12953,25 +12953,25 @@
         <v>194</v>
       </c>
       <c r="B189">
-        <v>0.0006717127070150607</v>
+        <v>0.0006478458352728643</v>
       </c>
       <c r="C189">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="D189">
-        <v>21</v>
+        <v>62</v>
       </c>
       <c r="E189">
-        <v>0.95</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="F189">
-        <v>0.05000000000000004</v>
+        <v>0.1899999999999999</v>
       </c>
       <c r="G189" t="b">
         <v>1</v>
       </c>
       <c r="H189">
-        <v>91</v>
+        <v>906</v>
       </c>
       <c r="J189" s="1" t="s">
         <v>440</v>
@@ -13003,13 +13003,13 @@
         <v>195</v>
       </c>
       <c r="B190">
-        <v>0.0006540127147607751</v>
+        <v>0.0006436309871456167</v>
       </c>
       <c r="C190">
         <v>1</v>
       </c>
       <c r="D190">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E190">
         <v>0.95</v>
@@ -13021,7 +13021,7 @@
         <v>1</v>
       </c>
       <c r="H190">
-        <v>108</v>
+        <v>90</v>
       </c>
       <c r="J190" s="1" t="s">
         <v>441</v>
@@ -13053,25 +13053,25 @@
         <v>196</v>
       </c>
       <c r="B191">
-        <v>0.0006395422947518223</v>
+        <v>0.0006269133302414515</v>
       </c>
       <c r="C191">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="D191">
-        <v>62</v>
+        <v>22</v>
       </c>
       <c r="E191">
-        <v>0.8100000000000001</v>
+        <v>0.91</v>
       </c>
       <c r="F191">
-        <v>0.1899999999999999</v>
+        <v>0.08999999999999997</v>
       </c>
       <c r="G191" t="b">
         <v>1</v>
       </c>
       <c r="H191">
-        <v>906</v>
+        <v>26</v>
       </c>
       <c r="J191" s="1" t="s">
         <v>442</v>
@@ -13103,25 +13103,25 @@
         <v>197</v>
       </c>
       <c r="B192">
-        <v>0.000635381468986546</v>
+        <v>0.000623719759766703</v>
       </c>
       <c r="C192">
         <v>1</v>
       </c>
       <c r="D192">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E192">
-        <v>0.95</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="F192">
-        <v>0.05000000000000004</v>
+        <v>0.06000000000000005</v>
       </c>
       <c r="G192" t="b">
         <v>1</v>
       </c>
       <c r="H192">
-        <v>90</v>
+        <v>111</v>
       </c>
       <c r="J192" s="1" t="s">
         <v>443</v>
@@ -13153,25 +13153,25 @@
         <v>198</v>
       </c>
       <c r="B193">
-        <v>0.000618878084883042</v>
+        <v>0.0006031906630060151</v>
       </c>
       <c r="C193">
         <v>2</v>
       </c>
       <c r="D193">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E193">
-        <v>0.91</v>
+        <v>0.9</v>
       </c>
       <c r="F193">
-        <v>0.08999999999999997</v>
+        <v>0.09999999999999998</v>
       </c>
       <c r="G193" t="b">
         <v>1</v>
       </c>
       <c r="H193">
-        <v>26</v>
+        <v>106</v>
       </c>
       <c r="J193" s="1" t="s">
         <v>444</v>
@@ -13203,13 +13203,13 @@
         <v>199</v>
       </c>
       <c r="B194">
-        <v>0.0006157254468962405</v>
+        <v>0.0006026612002435804</v>
       </c>
       <c r="C194">
         <v>1</v>
       </c>
       <c r="D194">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E194">
         <v>0.9399999999999999</v>
@@ -13221,7 +13221,7 @@
         <v>1</v>
       </c>
       <c r="H194">
-        <v>111</v>
+        <v>121</v>
       </c>
       <c r="J194" s="1" t="s">
         <v>445</v>
@@ -13253,25 +13253,25 @@
         <v>200</v>
       </c>
       <c r="B195">
-        <v>0.0005954594747518295</v>
+        <v>0.0005929060679617729</v>
       </c>
       <c r="C195">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D195">
-        <v>21</v>
+        <v>33</v>
       </c>
       <c r="E195">
-        <v>0.9</v>
+        <v>0.85</v>
       </c>
       <c r="F195">
-        <v>0.09999999999999998</v>
+        <v>0.15</v>
       </c>
       <c r="G195" t="b">
         <v>1</v>
       </c>
       <c r="H195">
-        <v>106</v>
+        <v>512</v>
       </c>
       <c r="J195" s="1" t="s">
         <v>446</v>
@@ -13303,13 +13303,13 @@
         <v>201</v>
       </c>
       <c r="B196">
-        <v>0.0005949367981957156</v>
+        <v>0.0005803285001481666</v>
       </c>
       <c r="C196">
         <v>1</v>
       </c>
       <c r="D196">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E196">
         <v>0.9399999999999999</v>
@@ -13321,7 +13321,7 @@
         <v>1</v>
       </c>
       <c r="H196">
-        <v>121</v>
+        <v>17</v>
       </c>
       <c r="J196" s="1" t="s">
         <v>447</v>
@@ -13353,25 +13353,25 @@
         <v>202</v>
       </c>
       <c r="B197">
-        <v>0.0005853066989569252</v>
+        <v>0.0005565734332453634</v>
       </c>
       <c r="C197">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="D197">
-        <v>33</v>
+        <v>15</v>
       </c>
       <c r="E197">
-        <v>0.85</v>
+        <v>0.93</v>
       </c>
       <c r="F197">
-        <v>0.15</v>
+        <v>0.06999999999999995</v>
       </c>
       <c r="G197" t="b">
         <v>1</v>
       </c>
       <c r="H197">
-        <v>512</v>
+        <v>21</v>
       </c>
       <c r="J197" s="1" t="s">
         <v>448</v>
@@ -13403,25 +13403,25 @@
         <v>203</v>
       </c>
       <c r="B198">
-        <v>0.0005728903397801737</v>
+        <v>0.0005565734332453634</v>
       </c>
       <c r="C198">
         <v>1</v>
       </c>
       <c r="D198">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E198">
-        <v>0.9399999999999999</v>
+        <v>0.93</v>
       </c>
       <c r="F198">
-        <v>0.06000000000000005</v>
+        <v>0.06999999999999995</v>
       </c>
       <c r="G198" t="b">
         <v>1</v>
       </c>
       <c r="H198">
-        <v>17</v>
+        <v>28</v>
       </c>
       <c r="J198" s="1" t="s">
         <v>449</v>
@@ -13453,25 +13453,25 @@
         <v>204</v>
       </c>
       <c r="B199">
-        <v>0.0005494397452531549</v>
+        <v>0.0005205461574350453</v>
       </c>
       <c r="C199">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D199">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="E199">
-        <v>0.93</v>
+        <v>0.86</v>
       </c>
       <c r="F199">
-        <v>0.06999999999999995</v>
+        <v>0.14</v>
       </c>
       <c r="G199" t="b">
         <v>1</v>
       </c>
       <c r="H199">
-        <v>21</v>
+        <v>338</v>
       </c>
       <c r="J199" s="1" t="s">
         <v>450</v>
@@ -13503,25 +13503,25 @@
         <v>205</v>
       </c>
       <c r="B200">
-        <v>0.0005494397452531549</v>
+        <v>0.0005040651411800036</v>
       </c>
       <c r="C200">
         <v>1</v>
       </c>
       <c r="D200">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="E200">
-        <v>0.93</v>
+        <v>0.92</v>
       </c>
       <c r="F200">
-        <v>0.06999999999999995</v>
+        <v>0.07999999999999996</v>
       </c>
       <c r="G200" t="b">
         <v>1</v>
       </c>
       <c r="H200">
-        <v>28</v>
+        <v>59</v>
       </c>
       <c r="J200" s="1" t="s">
         <v>451</v>
@@ -13553,25 +13553,25 @@
         <v>206</v>
       </c>
       <c r="B201">
-        <v>0.00051387423662303</v>
+        <v>0.0004970711059508295</v>
       </c>
       <c r="C201">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D201">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="E201">
-        <v>0.86</v>
+        <v>0.88</v>
       </c>
       <c r="F201">
-        <v>0.14</v>
+        <v>0.12</v>
       </c>
       <c r="G201" t="b">
         <v>1</v>
       </c>
       <c r="H201">
-        <v>338</v>
+        <v>92</v>
       </c>
       <c r="J201" s="1" t="s">
         <v>452</v>
@@ -13603,25 +13603,25 @@
         <v>207</v>
       </c>
       <c r="B202">
-        <v>0.0004976044601087576</v>
+        <v>0.0004932955534925976</v>
       </c>
       <c r="C202">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D202">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="E202">
-        <v>0.92</v>
+        <v>0.86</v>
       </c>
       <c r="F202">
-        <v>0.07999999999999996</v>
+        <v>0.14</v>
       </c>
       <c r="G202" t="b">
         <v>1</v>
       </c>
       <c r="H202">
-        <v>59</v>
+        <v>98</v>
       </c>
       <c r="J202" s="1" t="s">
         <v>453</v>
@@ -13653,25 +13653,25 @@
         <v>208</v>
       </c>
       <c r="B203">
-        <v>0.0004907000685135611</v>
+        <v>0.0004748562794384527</v>
       </c>
       <c r="C203">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D203">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="E203">
-        <v>0.88</v>
+        <v>0.92</v>
       </c>
       <c r="F203">
-        <v>0.12</v>
+        <v>0.07999999999999996</v>
       </c>
       <c r="G203" t="b">
         <v>1</v>
       </c>
       <c r="H203">
-        <v>92</v>
+        <v>85</v>
       </c>
       <c r="J203" s="1" t="s">
         <v>454</v>
@@ -13703,25 +13703,25 @@
         <v>209</v>
       </c>
       <c r="B204">
-        <v>0.0004869729078965966</v>
+        <v>0.0004432946670299718</v>
       </c>
       <c r="C204">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D204">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="E204">
-        <v>0.86</v>
+        <v>0.91</v>
       </c>
       <c r="F204">
-        <v>0.14</v>
+        <v>0.08999999999999997</v>
       </c>
       <c r="G204" t="b">
         <v>1</v>
       </c>
       <c r="H204">
-        <v>98</v>
+        <v>52</v>
       </c>
       <c r="J204" s="1" t="s">
         <v>455</v>
@@ -13753,25 +13753,25 @@
         <v>210</v>
       </c>
       <c r="B205">
-        <v>0.0004687699728770658</v>
+        <v>0.0004432946670299718</v>
       </c>
       <c r="C205">
         <v>1</v>
       </c>
       <c r="D205">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E205">
-        <v>0.92</v>
+        <v>0.91</v>
       </c>
       <c r="F205">
-        <v>0.07999999999999996</v>
+        <v>0.08999999999999997</v>
       </c>
       <c r="G205" t="b">
         <v>1</v>
       </c>
       <c r="H205">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="J205" s="1" t="s">
         <v>456</v>
@@ -13803,25 +13803,25 @@
         <v>211</v>
       </c>
       <c r="B206">
-        <v>0.0004376128905485427</v>
+        <v>0.0004358556739831232</v>
       </c>
       <c r="C206">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D206">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="E206">
-        <v>0.91</v>
+        <v>0.87</v>
       </c>
       <c r="F206">
-        <v>0.08999999999999997</v>
+        <v>0.13</v>
       </c>
       <c r="G206" t="b">
         <v>1</v>
       </c>
       <c r="H206">
-        <v>52</v>
+        <v>64</v>
       </c>
       <c r="J206" s="1" t="s">
         <v>457</v>
@@ -13853,25 +13853,25 @@
         <v>212</v>
       </c>
       <c r="B207">
-        <v>0.0004376128905485427</v>
+        <v>0.0004090141791908398</v>
       </c>
       <c r="C207">
         <v>1</v>
       </c>
       <c r="D207">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E207">
-        <v>0.91</v>
+        <v>0.9</v>
       </c>
       <c r="F207">
-        <v>0.08999999999999997</v>
+        <v>0.09999999999999998</v>
       </c>
       <c r="G207" t="b">
         <v>1</v>
       </c>
       <c r="H207">
-        <v>78</v>
+        <v>47</v>
       </c>
       <c r="J207" s="1" t="s">
         <v>458</v>
@@ -13903,25 +13903,25 @@
         <v>213</v>
       </c>
       <c r="B208">
-        <v>0.0004302692442290127</v>
+        <v>0.0004090141791908398</v>
       </c>
       <c r="C208">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D208">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="E208">
-        <v>0.87</v>
+        <v>0.9</v>
       </c>
       <c r="F208">
-        <v>0.13</v>
+        <v>0.09999999999999998</v>
       </c>
       <c r="G208" t="b">
         <v>1</v>
       </c>
       <c r="H208">
-        <v>64</v>
+        <v>21</v>
       </c>
       <c r="J208" s="1" t="s">
         <v>459</v>
@@ -13953,7 +13953,7 @@
         <v>214</v>
       </c>
       <c r="B209">
-        <v>0.0004037717810373325</v>
+        <v>0.0004090141791908398</v>
       </c>
       <c r="C209">
         <v>1</v>
@@ -13971,7 +13971,7 @@
         <v>1</v>
       </c>
       <c r="H209">
-        <v>47</v>
+        <v>86</v>
       </c>
       <c r="J209" s="1" t="s">
         <v>460</v>
@@ -14003,7 +14003,7 @@
         <v>215</v>
       </c>
       <c r="B210">
-        <v>0.0004037717810373325</v>
+        <v>0.0004090141791908398</v>
       </c>
       <c r="C210">
         <v>1</v>
@@ -14021,7 +14021,7 @@
         <v>1</v>
       </c>
       <c r="H210">
-        <v>21</v>
+        <v>56</v>
       </c>
       <c r="J210" s="1" t="s">
         <v>461</v>
@@ -14053,25 +14053,25 @@
         <v>216</v>
       </c>
       <c r="B211">
-        <v>0.0004037717810373325</v>
+        <v>0.0004027741328135558</v>
       </c>
       <c r="C211">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D211">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="E211">
-        <v>0.9</v>
+        <v>0.86</v>
       </c>
       <c r="F211">
-        <v>0.09999999999999998</v>
+        <v>0.14</v>
       </c>
       <c r="G211" t="b">
         <v>1</v>
       </c>
       <c r="H211">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="J211" s="1" t="s">
         <v>462</v>
@@ -14103,25 +14103,25 @@
         <v>217</v>
       </c>
       <c r="B212">
-        <v>0.0004037717810373325</v>
+        <v>0.0003715646057897918</v>
       </c>
       <c r="C212">
         <v>1</v>
       </c>
       <c r="D212">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E212">
-        <v>0.9</v>
+        <v>0.89</v>
       </c>
       <c r="F212">
-        <v>0.09999999999999998</v>
+        <v>0.11</v>
       </c>
       <c r="G212" t="b">
         <v>1</v>
       </c>
       <c r="H212">
-        <v>56</v>
+        <v>25</v>
       </c>
       <c r="J212" s="1" t="s">
         <v>463</v>
@@ -14153,25 +14153,25 @@
         <v>218</v>
       </c>
       <c r="B213">
-        <v>0.0003976117143020033</v>
+        <v>0.0003715646057897918</v>
       </c>
       <c r="C213">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D213">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="E213">
-        <v>0.86</v>
+        <v>0.89</v>
       </c>
       <c r="F213">
-        <v>0.14</v>
+        <v>0.11</v>
       </c>
       <c r="G213" t="b">
         <v>1</v>
       </c>
       <c r="H213">
-        <v>85</v>
+        <v>41</v>
       </c>
       <c r="J213" s="1" t="s">
         <v>464</v>
@@ -14203,7 +14203,7 @@
         <v>219</v>
       </c>
       <c r="B214">
-        <v>0.0003668022046252292</v>
+        <v>0.0003715646057897918</v>
       </c>
       <c r="C214">
         <v>1</v>
@@ -14221,7 +14221,7 @@
         <v>1</v>
       </c>
       <c r="H214">
-        <v>25</v>
+        <v>49</v>
       </c>
       <c r="J214" s="1" t="s">
         <v>465</v>
@@ -14253,7 +14253,7 @@
         <v>220</v>
       </c>
       <c r="B215">
-        <v>0.0003668022046252292</v>
+        <v>0.0003715646057897918</v>
       </c>
       <c r="C215">
         <v>1</v>
@@ -14271,7 +14271,7 @@
         <v>1</v>
       </c>
       <c r="H215">
-        <v>41</v>
+        <v>119</v>
       </c>
       <c r="J215" s="1" t="s">
         <v>466</v>
@@ -14303,7 +14303,7 @@
         <v>221</v>
       </c>
       <c r="B216">
-        <v>0.0003668022046252292</v>
+        <v>0.0003715646057897918</v>
       </c>
       <c r="C216">
         <v>1</v>
@@ -14321,7 +14321,7 @@
         <v>1</v>
       </c>
       <c r="H216">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="J216" s="1" t="s">
         <v>467</v>
@@ -14353,7 +14353,7 @@
         <v>222</v>
       </c>
       <c r="B217">
-        <v>0.0003668022046252292</v>
+        <v>0.0003715646057897918</v>
       </c>
       <c r="C217">
         <v>1</v>
@@ -14371,7 +14371,7 @@
         <v>1</v>
       </c>
       <c r="H217">
-        <v>119</v>
+        <v>104</v>
       </c>
       <c r="J217" s="1" t="s">
         <v>468</v>
@@ -14403,7 +14403,7 @@
         <v>223</v>
       </c>
       <c r="B218">
-        <v>0.0003668022046252292</v>
+        <v>0.0003715646057897918</v>
       </c>
       <c r="C218">
         <v>1</v>
@@ -14421,7 +14421,7 @@
         <v>1</v>
       </c>
       <c r="H218">
-        <v>51</v>
+        <v>71</v>
       </c>
       <c r="J218" s="1" t="s">
         <v>469</v>
@@ -14453,25 +14453,25 @@
         <v>224</v>
       </c>
       <c r="B219">
-        <v>0.0003668022046252292</v>
+        <v>0.0003541525037826212</v>
       </c>
       <c r="C219">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D219">
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="E219">
-        <v>0.89</v>
+        <v>0.8</v>
       </c>
       <c r="F219">
-        <v>0.11</v>
+        <v>0.2</v>
       </c>
       <c r="G219" t="b">
         <v>1</v>
       </c>
       <c r="H219">
-        <v>104</v>
+        <v>77</v>
       </c>
       <c r="J219" s="1" t="s">
         <v>470</v>
@@ -14503,25 +14503,25 @@
         <v>225</v>
       </c>
       <c r="B220">
-        <v>0.0003668022046252292</v>
+        <v>0.000330911720022825</v>
       </c>
       <c r="C220">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D220">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="E220">
-        <v>0.89</v>
+        <v>0.83</v>
       </c>
       <c r="F220">
-        <v>0.11</v>
+        <v>0.17</v>
       </c>
       <c r="G220" t="b">
         <v>1</v>
       </c>
       <c r="H220">
-        <v>71</v>
+        <v>80</v>
       </c>
       <c r="J220" s="1" t="s">
         <v>471</v>
@@ -14553,25 +14553,25 @@
         <v>226</v>
       </c>
       <c r="B221">
-        <v>0.0003496132762292807</v>
+        <v>0.0003303896024097009</v>
       </c>
       <c r="C221">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D221">
-        <v>20</v>
+        <v>8</v>
       </c>
       <c r="E221">
-        <v>0.8</v>
+        <v>0.88</v>
       </c>
       <c r="F221">
-        <v>0.2</v>
+        <v>0.12</v>
       </c>
       <c r="G221" t="b">
         <v>1</v>
       </c>
       <c r="H221">
-        <v>77</v>
+        <v>45</v>
       </c>
       <c r="J221" s="1" t="s">
         <v>472</v>
@@ -14603,25 +14603,25 @@
         <v>227</v>
       </c>
       <c r="B222">
-        <v>0.0003266703731984839</v>
+        <v>0.0003303896024097009</v>
       </c>
       <c r="C222">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D222">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="E222">
-        <v>0.83</v>
+        <v>0.88</v>
       </c>
       <c r="F222">
-        <v>0.17</v>
+        <v>0.12</v>
       </c>
       <c r="G222" t="b">
         <v>1</v>
       </c>
       <c r="H222">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="J222" s="1" t="s">
         <v>473</v>
@@ -14653,7 +14653,7 @@
         <v>228</v>
       </c>
       <c r="B223">
-        <v>0.0003261549476477629</v>
+        <v>0.0003303896024097009</v>
       </c>
       <c r="C223">
         <v>1</v>
@@ -14671,7 +14671,7 @@
         <v>1</v>
       </c>
       <c r="H223">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="J223" s="1" t="s">
         <v>474</v>
@@ -14703,25 +14703,25 @@
         <v>229</v>
       </c>
       <c r="B224">
-        <v>0.0003261549476477629</v>
+        <v>0.0002848043205989965</v>
       </c>
       <c r="C224">
         <v>1</v>
       </c>
       <c r="D224">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E224">
-        <v>0.88</v>
+        <v>0.86</v>
       </c>
       <c r="F224">
-        <v>0.12</v>
+        <v>0.14</v>
       </c>
       <c r="G224" t="b">
         <v>1</v>
       </c>
       <c r="H224">
-        <v>77</v>
+        <v>63</v>
       </c>
       <c r="J224" s="1" t="s">
         <v>475</v>
@@ -14753,25 +14753,25 @@
         <v>230</v>
       </c>
       <c r="B225">
-        <v>0.0003261549476477629</v>
+        <v>0.0002848043205989965</v>
       </c>
       <c r="C225">
         <v>1</v>
       </c>
       <c r="D225">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E225">
-        <v>0.88</v>
+        <v>0.86</v>
       </c>
       <c r="F225">
-        <v>0.12</v>
+        <v>0.14</v>
       </c>
       <c r="G225" t="b">
         <v>1</v>
       </c>
       <c r="H225">
-        <v>48</v>
+        <v>131</v>
       </c>
       <c r="J225" s="1" t="s">
         <v>476</v>
@@ -14803,25 +14803,25 @@
         <v>231</v>
       </c>
       <c r="B226">
-        <v>0.0002811539394621546</v>
+        <v>0.0002339899212022438</v>
       </c>
       <c r="C226">
         <v>1</v>
       </c>
       <c r="D226">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E226">
-        <v>0.86</v>
+        <v>0.83</v>
       </c>
       <c r="F226">
-        <v>0.14</v>
+        <v>0.17</v>
       </c>
       <c r="G226" t="b">
         <v>1</v>
       </c>
       <c r="H226">
-        <v>63</v>
+        <v>36</v>
       </c>
       <c r="J226" s="1" t="s">
         <v>477</v>
@@ -14853,25 +14853,25 @@
         <v>232</v>
       </c>
       <c r="B227">
-        <v>0.0002811539394621546</v>
+        <v>0.0002339899212022438</v>
       </c>
       <c r="C227">
         <v>1</v>
       </c>
       <c r="D227">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E227">
-        <v>0.86</v>
+        <v>0.83</v>
       </c>
       <c r="F227">
-        <v>0.14</v>
+        <v>0.17</v>
       </c>
       <c r="G227" t="b">
         <v>1</v>
       </c>
       <c r="H227">
-        <v>131</v>
+        <v>25</v>
       </c>
       <c r="J227" s="1" t="s">
         <v>478</v>
@@ -14903,7 +14903,7 @@
         <v>233</v>
       </c>
       <c r="B228">
-        <v>0.0002309908361013881</v>
+        <v>0.0002339899212022438</v>
       </c>
       <c r="C228">
         <v>1</v>
@@ -14921,7 +14921,7 @@
         <v>1</v>
       </c>
       <c r="H228">
-        <v>36</v>
+        <v>102</v>
       </c>
       <c r="J228" s="1" t="s">
         <v>479</v>
@@ -14953,7 +14953,7 @@
         <v>234</v>
       </c>
       <c r="B229">
-        <v>0.0002309908361013881</v>
+        <v>0.0002339899212022438</v>
       </c>
       <c r="C229">
         <v>1</v>
@@ -14971,7 +14971,7 @@
         <v>1</v>
       </c>
       <c r="H229">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="J229" s="1" t="s">
         <v>480</v>
@@ -15003,7 +15003,7 @@
         <v>235</v>
       </c>
       <c r="B230">
-        <v>0.0002309908361013881</v>
+        <v>0.0002339899212022438</v>
       </c>
       <c r="C230">
         <v>1</v>
@@ -15021,7 +15021,7 @@
         <v>1</v>
       </c>
       <c r="H230">
-        <v>102</v>
+        <v>28</v>
       </c>
       <c r="J230" s="1" t="s">
         <v>481</v>
@@ -15053,7 +15053,7 @@
         <v>236</v>
       </c>
       <c r="B231">
-        <v>0.0002309908361013881</v>
+        <v>0.0002339899212022438</v>
       </c>
       <c r="C231">
         <v>1</v>
@@ -15071,10 +15071,10 @@
         <v>1</v>
       </c>
       <c r="H231">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="J231" s="1" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="K231">
         <v>0.0009438725555661555</v>
@@ -15103,7 +15103,7 @@
         <v>237</v>
       </c>
       <c r="B232">
-        <v>0.0002309908361013881</v>
+        <v>0.0002339899212022438</v>
       </c>
       <c r="C232">
         <v>1</v>
@@ -15121,10 +15121,10 @@
         <v>1</v>
       </c>
       <c r="H232">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="J232" s="1" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="K232">
         <v>0.0009415979720714227</v>
@@ -15153,25 +15153,25 @@
         <v>238</v>
       </c>
       <c r="B233">
-        <v>0.0002309908361013881</v>
+        <v>0.0002066760450708181</v>
       </c>
       <c r="C233">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D233">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="E233">
-        <v>0.83</v>
+        <v>0.78</v>
       </c>
       <c r="F233">
-        <v>0.17</v>
+        <v>0.22</v>
       </c>
       <c r="G233" t="b">
         <v>1</v>
       </c>
       <c r="H233">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="J233" s="1" t="s">
         <v>482</v>
@@ -15203,25 +15203,25 @@
         <v>239</v>
       </c>
       <c r="B234">
-        <v>0.0002309908361013881</v>
+        <v>0.0001770762518913106</v>
       </c>
       <c r="C234">
         <v>1</v>
       </c>
       <c r="D234">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E234">
-        <v>0.83</v>
+        <v>0.8</v>
       </c>
       <c r="F234">
-        <v>0.17</v>
+        <v>0.2</v>
       </c>
       <c r="G234" t="b">
         <v>1</v>
       </c>
       <c r="H234">
-        <v>22</v>
+        <v>90</v>
       </c>
       <c r="J234" s="1" t="s">
         <v>483</v>
@@ -15253,25 +15253,25 @@
         <v>240</v>
       </c>
       <c r="B235">
-        <v>0.0002040270461554336</v>
+        <v>0.0001770762518913106</v>
       </c>
       <c r="C235">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D235">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="E235">
-        <v>0.78</v>
+        <v>0.8</v>
       </c>
       <c r="F235">
-        <v>0.22</v>
+        <v>0.2</v>
       </c>
       <c r="G235" t="b">
         <v>1</v>
       </c>
       <c r="H235">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="J235" s="1" t="s">
         <v>484</v>
@@ -15303,7 +15303,7 @@
         <v>241</v>
       </c>
       <c r="B236">
-        <v>0.0001748066381146404</v>
+        <v>0.0001770762518913106</v>
       </c>
       <c r="C236">
         <v>1</v>
@@ -15321,7 +15321,7 @@
         <v>1</v>
       </c>
       <c r="H236">
-        <v>90</v>
+        <v>77</v>
       </c>
       <c r="J236" s="1" t="s">
         <v>485</v>
@@ -15353,7 +15353,7 @@
         <v>242</v>
       </c>
       <c r="B237">
-        <v>0.0001748066381146404</v>
+        <v>0.0001770762518913106</v>
       </c>
       <c r="C237">
         <v>1</v>
@@ -15371,7 +15371,7 @@
         <v>1</v>
       </c>
       <c r="H237">
-        <v>26</v>
+        <v>61</v>
       </c>
       <c r="J237" s="1" t="s">
         <v>486</v>
@@ -15403,7 +15403,7 @@
         <v>243</v>
       </c>
       <c r="B238">
-        <v>0.0001748066381146404</v>
+        <v>0.0001770762518913106</v>
       </c>
       <c r="C238">
         <v>1</v>
@@ -15421,7 +15421,7 @@
         <v>1</v>
       </c>
       <c r="H238">
-        <v>77</v>
+        <v>46</v>
       </c>
       <c r="J238" s="1" t="s">
         <v>487</v>
@@ -15453,25 +15453,25 @@
         <v>244</v>
       </c>
       <c r="B239">
-        <v>0.0001748066381146404</v>
+        <v>0.0001136278888252131</v>
       </c>
       <c r="C239">
         <v>1</v>
       </c>
       <c r="D239">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E239">
-        <v>0.8</v>
+        <v>0.75</v>
       </c>
       <c r="F239">
-        <v>0.2</v>
+        <v>0.25</v>
       </c>
       <c r="G239" t="b">
         <v>1</v>
       </c>
       <c r="H239">
-        <v>61</v>
+        <v>15</v>
       </c>
       <c r="J239" s="1" t="s">
         <v>488</v>
@@ -15503,25 +15503,25 @@
         <v>245</v>
       </c>
       <c r="B240">
-        <v>0.0001748066381146404</v>
+        <v>0.0001136278888252131</v>
       </c>
       <c r="C240">
         <v>1</v>
       </c>
       <c r="D240">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E240">
-        <v>0.8</v>
+        <v>0.75</v>
       </c>
       <c r="F240">
-        <v>0.2</v>
+        <v>0.25</v>
       </c>
       <c r="G240" t="b">
         <v>1</v>
       </c>
       <c r="H240">
-        <v>46</v>
+        <v>11</v>
       </c>
       <c r="J240" s="1" t="s">
         <v>489</v>
@@ -15553,7 +15553,7 @@
         <v>246</v>
       </c>
       <c r="B241">
-        <v>0.0001121715025558112</v>
+        <v>0.0001136278888252131</v>
       </c>
       <c r="C241">
         <v>1</v>
@@ -15571,7 +15571,7 @@
         <v>1</v>
       </c>
       <c r="H241">
-        <v>15</v>
+        <v>41</v>
       </c>
       <c r="J241" s="1" t="s">
         <v>490</v>
@@ -15603,7 +15603,7 @@
         <v>247</v>
       </c>
       <c r="B242">
-        <v>0.0001121715025558112</v>
+        <v>0.0001136278888252131</v>
       </c>
       <c r="C242">
         <v>1</v>
@@ -15621,7 +15621,7 @@
         <v>1</v>
       </c>
       <c r="H242">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="J242" s="1" t="s">
         <v>491</v>
@@ -15653,7 +15653,7 @@
         <v>248</v>
       </c>
       <c r="B243">
-        <v>0.0001121715025558112</v>
+        <v>0.0001136278888252131</v>
       </c>
       <c r="C243">
         <v>1</v>
@@ -15671,7 +15671,7 @@
         <v>1</v>
       </c>
       <c r="H243">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="J243" s="1" t="s">
         <v>492</v>
@@ -15703,7 +15703,7 @@
         <v>249</v>
       </c>
       <c r="B244">
-        <v>0.0001121715025558112</v>
+        <v>0.0001136278888252131</v>
       </c>
       <c r="C244">
         <v>1</v>
@@ -15721,7 +15721,7 @@
         <v>1</v>
       </c>
       <c r="H244">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="J244" s="1" t="s">
         <v>493</v>
@@ -15753,7 +15753,7 @@
         <v>250</v>
       </c>
       <c r="B245">
-        <v>0.0001121715025558112</v>
+        <v>0.0001136278888252131</v>
       </c>
       <c r="C245">
         <v>1</v>
@@ -15771,7 +15771,7 @@
         <v>1</v>
       </c>
       <c r="H245">
-        <v>44</v>
+        <v>30</v>
       </c>
       <c r="J245" s="1" t="s">
         <v>494</v>
@@ -15803,7 +15803,7 @@
         <v>251</v>
       </c>
       <c r="B246">
-        <v>0.0001121715025558112</v>
+        <v>0.0001136278888252131</v>
       </c>
       <c r="C246">
         <v>1</v>
@@ -15821,7 +15821,7 @@
         <v>1</v>
       </c>
       <c r="H246">
-        <v>25</v>
+        <v>82</v>
       </c>
       <c r="J246" s="1" t="s">
         <v>495</v>
@@ -15853,7 +15853,7 @@
         <v>252</v>
       </c>
       <c r="B247">
-        <v>0.0001121715025558112</v>
+        <v>0.0001136278888252131</v>
       </c>
       <c r="C247">
         <v>1</v>
@@ -15871,7 +15871,7 @@
         <v>1</v>
       </c>
       <c r="H247">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="J247" s="1" t="s">
         <v>496</v>
@@ -15903,7 +15903,7 @@
         <v>253</v>
       </c>
       <c r="B248">
-        <v>0.0001121715025558112</v>
+        <v>0.0001136278888252131</v>
       </c>
       <c r="C248">
         <v>1</v>
@@ -15921,7 +15921,7 @@
         <v>1</v>
       </c>
       <c r="H248">
-        <v>82</v>
+        <v>59</v>
       </c>
       <c r="J248" s="1" t="s">
         <v>497</v>
@@ -15953,7 +15953,7 @@
         <v>254</v>
       </c>
       <c r="B249">
-        <v>0.0001121715025558112</v>
+        <v>0.0001136278888252131</v>
       </c>
       <c r="C249">
         <v>1</v>
@@ -15971,7 +15971,7 @@
         <v>1</v>
       </c>
       <c r="H249">
-        <v>37</v>
+        <v>187</v>
       </c>
       <c r="J249" s="1" t="s">
         <v>498</v>
@@ -16003,25 +16003,25 @@
         <v>255</v>
       </c>
       <c r="B250">
-        <v>0.0001121715025558112</v>
+        <v>8.010681147833011E-05</v>
       </c>
       <c r="C250">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D250">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="E250">
-        <v>0.75</v>
+        <v>0.67</v>
       </c>
       <c r="F250">
-        <v>0.25</v>
+        <v>0.33</v>
       </c>
       <c r="G250" t="b">
         <v>1</v>
       </c>
       <c r="H250">
-        <v>59</v>
+        <v>162</v>
       </c>
       <c r="J250" s="1" t="s">
         <v>499</v>
@@ -16053,25 +16053,25 @@
         <v>256</v>
       </c>
       <c r="B251">
-        <v>0.0001121715025558112</v>
+        <v>4.624968917093601E-05</v>
       </c>
       <c r="C251">
         <v>1</v>
       </c>
       <c r="D251">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E251">
-        <v>0.75</v>
+        <v>0.67</v>
       </c>
       <c r="F251">
-        <v>0.25</v>
+        <v>0.33</v>
       </c>
       <c r="G251" t="b">
         <v>1</v>
       </c>
       <c r="H251">
-        <v>187</v>
+        <v>15</v>
       </c>
       <c r="J251" s="1" t="s">
         <v>500</v>
@@ -16103,13 +16103,13 @@
         <v>257</v>
       </c>
       <c r="B252">
-        <v>7.908007005482213E-05</v>
+        <v>4.624968917093601E-05</v>
       </c>
       <c r="C252">
+        <v>1</v>
+      </c>
+      <c r="D252">
         <v>3</v>
-      </c>
-      <c r="D252">
-        <v>9</v>
       </c>
       <c r="E252">
         <v>0.67</v>
@@ -16121,7 +16121,7 @@
         <v>1</v>
       </c>
       <c r="H252">
-        <v>162</v>
+        <v>22</v>
       </c>
       <c r="J252" s="1" t="s">
         <v>501</v>
@@ -16153,7 +16153,7 @@
         <v>258</v>
       </c>
       <c r="B253">
-        <v>4.565689973368554E-05</v>
+        <v>4.624968917093601E-05</v>
       </c>
       <c r="C253">
         <v>1</v>
@@ -16171,7 +16171,7 @@
         <v>1</v>
       </c>
       <c r="H253">
-        <v>15</v>
+        <v>33</v>
       </c>
       <c r="J253" s="1" t="s">
         <v>502</v>
@@ -16203,7 +16203,7 @@
         <v>259</v>
       </c>
       <c r="B254">
-        <v>4.565689973368554E-05</v>
+        <v>4.624968917093601E-05</v>
       </c>
       <c r="C254">
         <v>1</v>
@@ -16221,7 +16221,7 @@
         <v>1</v>
       </c>
       <c r="H254">
-        <v>22</v>
+        <v>56</v>
       </c>
       <c r="J254" s="1" t="s">
         <v>503</v>
@@ -16253,7 +16253,7 @@
         <v>260</v>
       </c>
       <c r="B255">
-        <v>4.565689973368554E-05</v>
+        <v>4.624968917093601E-05</v>
       </c>
       <c r="C255">
         <v>1</v>
@@ -16271,7 +16271,7 @@
         <v>1</v>
       </c>
       <c r="H255">
-        <v>33</v>
+        <v>21</v>
       </c>
       <c r="J255" s="1" t="s">
         <v>504</v>
@@ -16303,7 +16303,7 @@
         <v>261</v>
       </c>
       <c r="B256">
-        <v>4.565689973368554E-05</v>
+        <v>4.624968917093601E-05</v>
       </c>
       <c r="C256">
         <v>1</v>
@@ -16321,7 +16321,7 @@
         <v>1</v>
       </c>
       <c r="H256">
-        <v>56</v>
+        <v>73</v>
       </c>
       <c r="J256" s="1" t="s">
         <v>505</v>
@@ -16353,7 +16353,7 @@
         <v>262</v>
       </c>
       <c r="B257">
-        <v>4.565689973368554E-05</v>
+        <v>4.624968917093601E-05</v>
       </c>
       <c r="C257">
         <v>1</v>
@@ -16371,7 +16371,7 @@
         <v>1</v>
       </c>
       <c r="H257">
-        <v>21</v>
+        <v>36</v>
       </c>
       <c r="J257" s="1" t="s">
         <v>506</v>
@@ -16403,7 +16403,7 @@
         <v>263</v>
       </c>
       <c r="B258">
-        <v>4.565689973368554E-05</v>
+        <v>4.624968917093601E-05</v>
       </c>
       <c r="C258">
         <v>1</v>
@@ -16421,7 +16421,7 @@
         <v>1</v>
       </c>
       <c r="H258">
-        <v>73</v>
+        <v>25</v>
       </c>
       <c r="J258" s="1" t="s">
         <v>507</v>
@@ -16453,7 +16453,7 @@
         <v>264</v>
       </c>
       <c r="B259">
-        <v>4.565689973368554E-05</v>
+        <v>4.624968917093601E-05</v>
       </c>
       <c r="C259">
         <v>1</v>
@@ -16471,7 +16471,7 @@
         <v>1</v>
       </c>
       <c r="H259">
-        <v>36</v>
+        <v>13</v>
       </c>
       <c r="J259" s="1" t="s">
         <v>508</v>
@@ -16503,7 +16503,7 @@
         <v>265</v>
       </c>
       <c r="B260">
-        <v>4.565689973368554E-05</v>
+        <v>4.624968917093601E-05</v>
       </c>
       <c r="C260">
         <v>1</v>
@@ -16521,7 +16521,7 @@
         <v>1</v>
       </c>
       <c r="H260">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="J260" s="1" t="s">
         <v>509</v>
@@ -16553,7 +16553,7 @@
         <v>266</v>
       </c>
       <c r="B261">
-        <v>4.565689973368554E-05</v>
+        <v>4.624968917093601E-05</v>
       </c>
       <c r="C261">
         <v>1</v>
@@ -16571,7 +16571,7 @@
         <v>1</v>
       </c>
       <c r="H261">
-        <v>13</v>
+        <v>29</v>
       </c>
       <c r="J261" s="1" t="s">
         <v>510</v>
@@ -16603,25 +16603,25 @@
         <v>267</v>
       </c>
       <c r="B262">
-        <v>4.565689973368554E-05</v>
+        <v>4.380426536127462E-05</v>
       </c>
       <c r="C262">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D262">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="E262">
-        <v>0.67</v>
+        <v>0.62</v>
       </c>
       <c r="F262">
-        <v>0.33</v>
+        <v>0.38</v>
       </c>
       <c r="G262" t="b">
         <v>1</v>
       </c>
       <c r="H262">
-        <v>31</v>
+        <v>285</v>
       </c>
       <c r="J262" s="1" t="s">
         <v>511</v>
@@ -16653,25 +16653,25 @@
         <v>268</v>
       </c>
       <c r="B263">
-        <v>4.565689973368554E-05</v>
+        <v>2.260142827231691E-05</v>
       </c>
       <c r="C263">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D263">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="E263">
-        <v>0.67</v>
+        <v>0.6</v>
       </c>
       <c r="F263">
-        <v>0.33</v>
+        <v>0.4</v>
       </c>
       <c r="G263" t="b">
         <v>1</v>
       </c>
       <c r="H263">
-        <v>29</v>
+        <v>51</v>
       </c>
       <c r="J263" s="1" t="s">
         <v>512</v>
@@ -16703,25 +16703,25 @@
         <v>269</v>
       </c>
       <c r="B264">
-        <v>4.324281930016254E-05</v>
+        <v>2.260142827231691E-05</v>
       </c>
       <c r="C264">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D264">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="E264">
-        <v>0.62</v>
+        <v>0.6</v>
       </c>
       <c r="F264">
-        <v>0.38</v>
+        <v>0.4</v>
       </c>
       <c r="G264" t="b">
         <v>1</v>
       </c>
       <c r="H264">
-        <v>285</v>
+        <v>28</v>
       </c>
       <c r="J264" s="1" t="s">
         <v>513</v>
@@ -16753,7 +16753,7 @@
         <v>270</v>
       </c>
       <c r="B265">
-        <v>2.231174226173454E-05</v>
+        <v>2.260142827231691E-05</v>
       </c>
       <c r="C265">
         <v>2</v>
@@ -16771,7 +16771,7 @@
         <v>1</v>
       </c>
       <c r="H265">
-        <v>51</v>
+        <v>96</v>
       </c>
       <c r="J265" s="1" t="s">
         <v>514</v>
@@ -16803,7 +16803,7 @@
         <v>271</v>
       </c>
       <c r="B266">
-        <v>2.231174226173454E-05</v>
+        <v>2.260142827231691E-05</v>
       </c>
       <c r="C266">
         <v>2</v>
@@ -16821,7 +16821,7 @@
         <v>1</v>
       </c>
       <c r="H266">
-        <v>28</v>
+        <v>96</v>
       </c>
       <c r="J266" s="1" t="s">
         <v>515</v>
@@ -16853,25 +16853,25 @@
         <v>272</v>
       </c>
       <c r="B267">
-        <v>2.231174226173454E-05</v>
+        <v>1.397027085069061E-05</v>
       </c>
       <c r="C267">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D267">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="E267">
-        <v>0.6</v>
+        <v>0.57</v>
       </c>
       <c r="F267">
-        <v>0.4</v>
+        <v>0.43</v>
       </c>
       <c r="G267" t="b">
         <v>1</v>
       </c>
       <c r="H267">
-        <v>96</v>
+        <v>41</v>
       </c>
       <c r="J267" s="1" t="s">
         <v>516</v>
@@ -16903,25 +16903,25 @@
         <v>273</v>
       </c>
       <c r="B268">
-        <v>2.231174226173454E-05</v>
+        <v>0</v>
       </c>
       <c r="C268">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D268">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="E268">
-        <v>0.6</v>
+        <v>0.5</v>
       </c>
       <c r="F268">
-        <v>0.4</v>
+        <v>0.5</v>
       </c>
       <c r="G268" t="b">
         <v>1</v>
       </c>
       <c r="H268">
-        <v>96</v>
+        <v>10</v>
       </c>
       <c r="J268" s="1" t="s">
         <v>517</v>
@@ -16953,25 +16953,25 @@
         <v>274</v>
       </c>
       <c r="B269">
-        <v>1.379121172306686E-05</v>
+        <v>0</v>
       </c>
       <c r="C269">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D269">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="E269">
-        <v>0.57</v>
+        <v>0.5</v>
       </c>
       <c r="F269">
-        <v>0.43</v>
+        <v>0.5</v>
       </c>
       <c r="G269" t="b">
         <v>1</v>
       </c>
       <c r="H269">
-        <v>41</v>
+        <v>8</v>
       </c>
       <c r="J269" s="1" t="s">
         <v>518</v>
@@ -17021,7 +17021,7 @@
         <v>1</v>
       </c>
       <c r="H270">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="J270" s="1" t="s">
         <v>519</v>
@@ -17071,7 +17071,7 @@
         <v>1</v>
       </c>
       <c r="H271">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="J271" s="1" t="s">
         <v>520</v>
@@ -17121,7 +17121,7 @@
         <v>1</v>
       </c>
       <c r="H272">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="J272" s="1" t="s">
         <v>521</v>
@@ -17171,7 +17171,7 @@
         <v>1</v>
       </c>
       <c r="H273">
-        <v>4</v>
+        <v>13</v>
       </c>
       <c r="J273" s="1" t="s">
         <v>522</v>
@@ -17221,7 +17221,7 @@
         <v>1</v>
       </c>
       <c r="H274">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="J274" s="1" t="s">
         <v>523</v>
@@ -17271,7 +17271,7 @@
         <v>1</v>
       </c>
       <c r="H275">
-        <v>13</v>
+        <v>39</v>
       </c>
       <c r="J275" s="1" t="s">
         <v>524</v>
@@ -17321,7 +17321,7 @@
         <v>1</v>
       </c>
       <c r="H276">
-        <v>16</v>
+        <v>27</v>
       </c>
       <c r="J276" s="1" t="s">
         <v>525</v>
@@ -17371,7 +17371,7 @@
         <v>1</v>
       </c>
       <c r="H277">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="J277" s="1" t="s">
         <v>526</v>
@@ -17421,7 +17421,7 @@
         <v>1</v>
       </c>
       <c r="H278">
-        <v>27</v>
+        <v>36</v>
       </c>
       <c r="J278" s="1" t="s">
         <v>527</v>
@@ -17471,7 +17471,7 @@
         <v>1</v>
       </c>
       <c r="H279">
-        <v>38</v>
+        <v>19</v>
       </c>
       <c r="J279" s="1" t="s">
         <v>528</v>
@@ -17521,7 +17521,7 @@
         <v>1</v>
       </c>
       <c r="H280">
-        <v>36</v>
+        <v>43</v>
       </c>
       <c r="J280" s="1" t="s">
         <v>529</v>
@@ -17571,7 +17571,7 @@
         <v>1</v>
       </c>
       <c r="H281">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="J281" s="1" t="s">
         <v>530</v>
@@ -17621,7 +17621,7 @@
         <v>1</v>
       </c>
       <c r="H282">
-        <v>43</v>
+        <v>27</v>
       </c>
       <c r="J282" s="1" t="s">
         <v>531</v>
@@ -17671,7 +17671,7 @@
         <v>1</v>
       </c>
       <c r="H283">
-        <v>25</v>
+        <v>13</v>
       </c>
       <c r="J283" s="1" t="s">
         <v>532</v>
@@ -17699,30 +17699,6 @@
       </c>
     </row>
     <row r="284" spans="1:17">
-      <c r="A284" s="1" t="s">
-        <v>289</v>
-      </c>
-      <c r="B284">
-        <v>0</v>
-      </c>
-      <c r="C284">
-        <v>1</v>
-      </c>
-      <c r="D284">
-        <v>2</v>
-      </c>
-      <c r="E284">
-        <v>0.5</v>
-      </c>
-      <c r="F284">
-        <v>0.5</v>
-      </c>
-      <c r="G284" t="b">
-        <v>1</v>
-      </c>
-      <c r="H284">
-        <v>27</v>
-      </c>
       <c r="J284" s="1" t="s">
         <v>533</v>
       </c>
@@ -17749,30 +17725,6 @@
       </c>
     </row>
     <row r="285" spans="1:17">
-      <c r="A285" s="1" t="s">
-        <v>290</v>
-      </c>
-      <c r="B285">
-        <v>0</v>
-      </c>
-      <c r="C285">
-        <v>1</v>
-      </c>
-      <c r="D285">
-        <v>2</v>
-      </c>
-      <c r="E285">
-        <v>0.5</v>
-      </c>
-      <c r="F285">
-        <v>0.5</v>
-      </c>
-      <c r="G285" t="b">
-        <v>1</v>
-      </c>
-      <c r="H285">
-        <v>13</v>
-      </c>
       <c r="J285" s="1" t="s">
         <v>534</v>
       </c>
@@ -18190,7 +18142,7 @@
     </row>
     <row r="301" spans="10:17">
       <c r="J301" s="1" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="K301">
         <v>0.0008025544502512741</v>
@@ -18216,7 +18168,7 @@
     </row>
     <row r="302" spans="10:17">
       <c r="J302" s="1" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="K302">
         <v>0.0007782247395783315</v>
@@ -18242,7 +18194,7 @@
     </row>
     <row r="303" spans="10:17">
       <c r="J303" s="1" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="K303">
         <v>0.0007662176371616734</v>
@@ -18268,7 +18220,7 @@
     </row>
     <row r="304" spans="10:17">
       <c r="J304" s="1" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="K304">
         <v>0.0007619578032459256</v>
@@ -18294,7 +18246,7 @@
     </row>
     <row r="305" spans="10:17">
       <c r="J305" s="1" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="K305">
         <v>0.0007485066554145534</v>
@@ -18320,7 +18272,7 @@
     </row>
     <row r="306" spans="10:17">
       <c r="J306" s="1" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="K306">
         <v>0.0007485066554145534</v>
@@ -22220,7 +22172,7 @@
     </row>
     <row r="456" spans="10:17">
       <c r="J456" s="1" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="K456">
         <v>0.0007340607914020067</v>
@@ -22246,7 +22198,7 @@
     </row>
     <row r="457" spans="10:17">
       <c r="J457" s="1" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="K457">
         <v>0.0007294530700749924</v>
@@ -22272,7 +22224,7 @@
     </row>
     <row r="458" spans="10:17">
       <c r="J458" s="1" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="K458">
         <v>0.0006922481226398805</v>
@@ -22298,7 +22250,7 @@
     </row>
     <row r="459" spans="10:17">
       <c r="J459" s="1" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="K459">
         <v>0.0006777418494899273</v>
@@ -22324,7 +22276,7 @@
     </row>
     <row r="460" spans="10:17">
       <c r="J460" s="1" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="K460">
         <v>0.0006545903392627992</v>
@@ -22350,7 +22302,7 @@
     </row>
     <row r="461" spans="10:17">
       <c r="J461" s="1" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="K461">
         <v>0.0006164677444596248</v>
@@ -22376,7 +22328,7 @@
     </row>
     <row r="462" spans="10:17">
       <c r="J462" s="1" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="K462">
         <v>0.0005778692934505737</v>
@@ -22402,7 +22354,7 @@
     </row>
     <row r="463" spans="10:17">
       <c r="J463" s="1" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="K463">
         <v>0.0005630165648502057</v>
@@ -22428,7 +22380,7 @@
     </row>
     <row r="464" spans="10:17">
       <c r="J464" s="1" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="K464">
         <v>0.0005387855296531992</v>
@@ -32178,7 +32130,7 @@
     </row>
     <row r="839" spans="10:17">
       <c r="J839" s="1" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="K839">
         <v>0.000499209549543022</v>
@@ -32204,7 +32156,7 @@
     </row>
     <row r="840" spans="10:17">
       <c r="J840" s="1" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="K840">
         <v>0.000499209549543022</v>
@@ -32230,7 +32182,7 @@
     </row>
     <row r="841" spans="10:17">
       <c r="J841" s="1" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="K841">
         <v>0.0004752300547261625</v>
@@ -32256,7 +32208,7 @@
     </row>
     <row r="842" spans="10:17">
       <c r="J842" s="1" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="K842">
         <v>0.0004456693908448413</v>
@@ -32282,7 +32234,7 @@
     </row>
     <row r="843" spans="10:17">
       <c r="J843" s="1" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="K843">
         <v>0.0004185753816880825</v>
@@ -32308,7 +32260,7 @@
     </row>
     <row r="844" spans="10:17">
       <c r="J844" s="1" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="K844">
         <v>0.0003775330027147841</v>
@@ -32334,7 +32286,7 @@
     </row>
     <row r="845" spans="10:17">
       <c r="J845" s="1" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="K845">
         <v>0.0003363382830034712</v>
@@ -32360,7 +32312,7 @@
     </row>
     <row r="846" spans="10:17">
       <c r="J846" s="1" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="K846">
         <v>0.0003360383943205232</v>
@@ -32386,7 +32338,7 @@
     </row>
     <row r="847" spans="10:17">
       <c r="J847" s="1" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="K847">
         <v>0.0003360383943205232</v>
@@ -32412,7 +32364,7 @@
     </row>
     <row r="848" spans="10:17">
       <c r="J848" s="1" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="K848">
         <v>0.0003263213919793851</v>
@@ -32438,7 +32390,7 @@
     </row>
     <row r="849" spans="10:17">
       <c r="J849" s="1" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="K849">
         <v>0.0003170023228867093</v>
@@ -32464,7 +32416,7 @@
     </row>
     <row r="850" spans="10:17">
       <c r="J850" s="1" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="K850">
         <v>0.0003140304867114626</v>
@@ -32490,7 +32442,7 @@
     </row>
     <row r="851" spans="10:17">
       <c r="J851" s="1" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="K851">
         <v>0.0002941413035774672</v>
@@ -32516,7 +32468,7 @@
     </row>
     <row r="852" spans="10:17">
       <c r="J852" s="1" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="K852">
         <v>0.0002941413035774672</v>
@@ -32542,7 +32494,7 @@
     </row>
     <row r="853" spans="10:17">
       <c r="J853" s="1" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="K853">
         <v>0.0002941413035774672</v>
@@ -32568,7 +32520,7 @@
     </row>
     <row r="854" spans="10:17">
       <c r="J854" s="1" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="K854">
         <v>0.0002941413035774672</v>
@@ -32594,7 +32546,7 @@
     </row>
     <row r="855" spans="10:17">
       <c r="J855" s="1" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="K855">
         <v>0.0002896537931947482</v>
@@ -32620,7 +32572,7 @@
     </row>
     <row r="856" spans="10:17">
       <c r="J856" s="1" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="K856">
         <v>0.0002663764192063675</v>
@@ -32646,7 +32598,7 @@
     </row>
     <row r="857" spans="10:17">
       <c r="J857" s="1" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="K857">
         <v>0.000251927586064633</v>
@@ -32672,7 +32624,7 @@
     </row>
     <row r="858" spans="10:17">
       <c r="J858" s="1" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="K858">
         <v>0.000251927586064633</v>
@@ -32698,7 +32650,7 @@
     </row>
     <row r="859" spans="10:17">
       <c r="J859" s="1" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="K859">
         <v>0.000251927586064633</v>
@@ -32724,7 +32676,7 @@
     </row>
     <row r="860" spans="10:17">
       <c r="J860" s="1" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="K860">
         <v>0.000251927586064633</v>
@@ -32750,7 +32702,7 @@
     </row>
     <row r="861" spans="10:17">
       <c r="J861" s="1" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="K861">
         <v>0.000251927586064633</v>
@@ -32776,7 +32728,7 @@
     </row>
     <row r="862" spans="10:17">
       <c r="J862" s="1" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="K862">
         <v>0.000251927586064633</v>
@@ -32802,7 +32754,7 @@
     </row>
     <row r="863" spans="10:17">
       <c r="J863" s="1" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="K863">
         <v>0.000251927586064633</v>
@@ -32828,7 +32780,7 @@
     </row>
     <row r="864" spans="10:17">
       <c r="J864" s="1" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="K864">
         <v>0.0002365013317962586</v>
@@ -32854,7 +32806,7 @@
     </row>
     <row r="865" spans="10:17">
       <c r="J865" s="1" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="K865">
         <v>0.000209542338119213</v>
@@ -32880,7 +32832,7 @@
     </row>
     <row r="866" spans="10:17">
       <c r="J866" s="1" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="K866">
         <v>0.000209542338119213</v>
@@ -32906,7 +32858,7 @@
     </row>
     <row r="867" spans="10:17">
       <c r="J867" s="1" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="K867">
         <v>0.000209542338119213</v>
@@ -32932,7 +32884,7 @@
     </row>
     <row r="868" spans="10:17">
       <c r="J868" s="1" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="K868">
         <v>0.0001773754643492508</v>
@@ -32958,7 +32910,7 @@
     </row>
     <row r="869" spans="10:17">
       <c r="J869" s="1" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="K869">
         <v>0.0001697917976567092</v>
@@ -32984,7 +32936,7 @@
     </row>
     <row r="870" spans="10:17">
       <c r="J870" s="1" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="K870">
         <v>0.0001672316954727841</v>
@@ -33010,7 +32962,7 @@
     </row>
     <row r="871" spans="10:17">
       <c r="J871" s="1" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="K871">
         <v>0.0001672316954727841</v>
@@ -33036,7 +32988,7 @@
     </row>
     <row r="872" spans="10:17">
       <c r="J872" s="1" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="K872">
         <v>0.0001254233936574679</v>
@@ -33062,7 +33014,7 @@
     </row>
     <row r="873" spans="10:17">
       <c r="J873" s="1" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="K873">
         <v>0.0001254233936574679</v>
@@ -33088,7 +33040,7 @@
     </row>
     <row r="874" spans="10:17">
       <c r="J874" s="1" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="K874">
         <v>0.0001254233936574679</v>
@@ -33114,7 +33066,7 @@
     </row>
     <row r="875" spans="10:17">
       <c r="J875" s="1" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="K875">
         <v>0.0001254233936574679</v>
@@ -33140,7 +33092,7 @@
     </row>
     <row r="876" spans="10:17">
       <c r="J876" s="1" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="K876">
         <v>0.0001254233936574679</v>
@@ -33166,7 +33118,7 @@
     </row>
     <row r="877" spans="10:17">
       <c r="J877" s="1" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="K877">
         <v>0.0001254233936574679</v>
@@ -33192,7 +33144,7 @@
     </row>
     <row r="878" spans="10:17">
       <c r="J878" s="1" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="K878">
         <v>0.0001254233936574679</v>
@@ -33218,7 +33170,7 @@
     </row>
     <row r="879" spans="10:17">
       <c r="J879" s="1" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="K879">
         <v>0.000113830483271015</v>
@@ -33244,7 +33196,7 @@
     </row>
     <row r="880" spans="10:17">
       <c r="J880" s="1" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="K880">
         <v>9.268736989432647E-05</v>
@@ -33270,7 +33222,7 @@
     </row>
     <row r="881" spans="10:17">
       <c r="J881" s="1" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="K881">
         <v>8.489589882835459E-05</v>
@@ -33296,7 +33248,7 @@
     </row>
     <row r="882" spans="10:17">
       <c r="J882" s="1" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="K882">
         <v>8.489589882835459E-05</v>
@@ -33322,7 +33274,7 @@
     </row>
     <row r="883" spans="10:17">
       <c r="J883" s="1" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="K883">
         <v>8.489589882835459E-05</v>
@@ -33348,7 +33300,7 @@
     </row>
     <row r="884" spans="10:17">
       <c r="J884" s="1" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="K884">
         <v>8.489589882835459E-05</v>
@@ -33374,7 +33326,7 @@
     </row>
     <row r="885" spans="10:17">
       <c r="J885" s="1" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="K885">
         <v>8.489589882835459E-05</v>
@@ -33400,7 +33352,7 @@
     </row>
     <row r="886" spans="10:17">
       <c r="J886" s="1" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="K886">
         <v>4.717826432520542E-05</v>
@@ -33426,7 +33378,7 @@
     </row>
     <row r="887" spans="10:17">
       <c r="J887" s="1" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="K887">
         <v>4.717826432520542E-05</v>
@@ -33452,7 +33404,7 @@
     </row>
     <row r="888" spans="10:17">
       <c r="J888" s="1" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="K888">
         <v>4.717826432520542E-05</v>
@@ -33478,7 +33430,7 @@
     </row>
     <row r="889" spans="10:17">
       <c r="J889" s="1" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="K889">
         <v>4.717826432520542E-05</v>
@@ -33504,7 +33456,7 @@
     </row>
     <row r="890" spans="10:17">
       <c r="J890" s="1" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="K890">
         <v>4.717826432520542E-05</v>
@@ -33530,7 +33482,7 @@
     </row>
     <row r="891" spans="10:17">
       <c r="J891" s="1" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="K891">
         <v>4.717826432520542E-05</v>
@@ -33556,7 +33508,7 @@
     </row>
     <row r="892" spans="10:17">
       <c r="J892" s="1" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="K892">
         <v>4.717826432520542E-05</v>
@@ -33582,7 +33534,7 @@
     </row>
     <row r="893" spans="10:17">
       <c r="J893" s="1" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="K893">
         <v>4.717826432520542E-05</v>
@@ -33608,7 +33560,7 @@
     </row>
     <row r="894" spans="10:17">
       <c r="J894" s="1" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="K894">
         <v>4.717826432520542E-05</v>
@@ -33634,7 +33586,7 @@
     </row>
     <row r="895" spans="10:17">
       <c r="J895" s="1" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="K895">
         <v>4.717826432520542E-05</v>
@@ -33660,7 +33612,7 @@
     </row>
     <row r="896" spans="10:17">
       <c r="J896" s="1" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="K896">
         <v>4.717826432520542E-05</v>
@@ -33686,7 +33638,7 @@
     </row>
     <row r="897" spans="10:17">
       <c r="J897" s="1" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="K897">
         <v>2.715694031213424E-05</v>
@@ -33712,7 +33664,7 @@
     </row>
     <row r="898" spans="10:17">
       <c r="J898" s="1" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="K898">
         <v>1.567906679957755E-05</v>
@@ -33738,7 +33690,7 @@
     </row>
     <row r="899" spans="10:17">
       <c r="J899" s="1" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="K899">
         <v>1.567906679957755E-05</v>
@@ -33764,7 +33716,7 @@
     </row>
     <row r="900" spans="10:17">
       <c r="J900" s="1" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="K900">
         <v>1.567906679957755E-05</v>
@@ -33790,7 +33742,7 @@
     </row>
     <row r="901" spans="10:17">
       <c r="J901" s="1" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="K901">
         <v>1.567906679957755E-05</v>
@@ -33816,7 +33768,7 @@
     </row>
     <row r="902" spans="10:17">
       <c r="J902" s="1" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="K902">
         <v>1.567906679957755E-05</v>
@@ -33842,7 +33794,7 @@
     </row>
     <row r="903" spans="10:17">
       <c r="J903" s="1" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="K903">
         <v>1.567906679957755E-05</v>
@@ -33868,7 +33820,7 @@
     </row>
     <row r="904" spans="10:17">
       <c r="J904" s="1" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="K904">
         <v>1.567906679957755E-05</v>
@@ -33894,7 +33846,7 @@
     </row>
     <row r="905" spans="10:17">
       <c r="J905" s="1" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="K905">
         <v>1.567906679957755E-05</v>
@@ -33920,7 +33872,7 @@
     </row>
     <row r="906" spans="10:17">
       <c r="J906" s="1" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="K906">
         <v>1.567906679957755E-05</v>
@@ -33946,7 +33898,7 @@
     </row>
     <row r="907" spans="10:17">
       <c r="J907" s="1" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="K907">
         <v>1.567906679957755E-05</v>
@@ -33972,7 +33924,7 @@
     </row>
     <row r="908" spans="10:17">
       <c r="J908" s="1" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="K908">
         <v>1.567906679957755E-05</v>
@@ -33998,7 +33950,7 @@
     </row>
     <row r="909" spans="10:17">
       <c r="J909" s="1" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="K909">
         <v>1.355617511330101E-05</v>
@@ -34024,7 +33976,7 @@
     </row>
     <row r="910" spans="10:17">
       <c r="J910" s="1" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="K910">
         <v>6.63556501203478E-06</v>
@@ -34050,7 +34002,7 @@
     </row>
     <row r="911" spans="10:17">
       <c r="J911" s="1" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="K911">
         <v>6.63556501203478E-06</v>
@@ -34076,7 +34028,7 @@
     </row>
     <row r="912" spans="10:17">
       <c r="J912" s="1" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="K912">
         <v>6.63556501203478E-06</v>
@@ -34102,7 +34054,7 @@
     </row>
     <row r="913" spans="10:17">
       <c r="J913" s="1" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="K913">
         <v>6.63556501203478E-06</v>
@@ -34128,7 +34080,7 @@
     </row>
     <row r="914" spans="10:17">
       <c r="J914" s="1" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="K914">
         <v>3.866968093267078E-06</v>
@@ -34154,7 +34106,7 @@
     </row>
     <row r="915" spans="10:17">
       <c r="J915" s="1" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="K915">
         <v>0</v>
@@ -34180,7 +34132,7 @@
     </row>
     <row r="916" spans="10:17">
       <c r="J916" s="1" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="K916">
         <v>0</v>
@@ -34206,7 +34158,7 @@
     </row>
     <row r="917" spans="10:17">
       <c r="J917" s="1" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="K917">
         <v>0</v>
@@ -34232,7 +34184,7 @@
     </row>
     <row r="918" spans="10:17">
       <c r="J918" s="1" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="K918">
         <v>0</v>
@@ -34258,7 +34210,7 @@
     </row>
     <row r="919" spans="10:17">
       <c r="J919" s="1" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="K919">
         <v>0</v>
@@ -34284,7 +34236,7 @@
     </row>
     <row r="920" spans="10:17">
       <c r="J920" s="1" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="K920">
         <v>0</v>
@@ -34310,7 +34262,7 @@
     </row>
     <row r="921" spans="10:17">
       <c r="J921" s="1" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="K921">
         <v>0</v>
@@ -34336,7 +34288,7 @@
     </row>
     <row r="922" spans="10:17">
       <c r="J922" s="1" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="K922">
         <v>0</v>
@@ -34362,7 +34314,7 @@
     </row>
     <row r="923" spans="10:17">
       <c r="J923" s="1" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="K923">
         <v>0</v>
@@ -34388,7 +34340,7 @@
     </row>
     <row r="924" spans="10:17">
       <c r="J924" s="1" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="K924">
         <v>0</v>
@@ -34414,7 +34366,7 @@
     </row>
     <row r="925" spans="10:17">
       <c r="J925" s="1" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="K925">
         <v>0</v>
@@ -34440,7 +34392,7 @@
     </row>
     <row r="926" spans="10:17">
       <c r="J926" s="1" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="K926">
         <v>0</v>
@@ -34466,7 +34418,7 @@
     </row>
     <row r="927" spans="10:17">
       <c r="J927" s="1" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="K927">
         <v>0</v>
@@ -34492,7 +34444,7 @@
     </row>
     <row r="928" spans="10:17">
       <c r="J928" s="1" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="K928">
         <v>0</v>
@@ -34518,7 +34470,7 @@
     </row>
     <row r="929" spans="10:17">
       <c r="J929" s="1" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="K929">
         <v>0</v>
@@ -34544,7 +34496,7 @@
     </row>
     <row r="930" spans="10:17">
       <c r="J930" s="1" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="K930">
         <v>0</v>
